--- a/public/template/26. ASN OPD DPUPR.xlsx
+++ b/public/template/26. ASN OPD DPUPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwi_mansyur/Documents/htdocs/sesendokneo/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF25BBE-F300-9C42-85F3-8446856BA6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891FA90-4EFE-C441-AB73-9DB1B8597BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26080" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32200" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data ASN" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>Alwi Mansyur:
 21</t>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="1846">
   <si>
     <t>No.</t>
   </si>
@@ -369,6 +370,7 @@
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1@gmail.com</t>
     </r>
@@ -1241,6 +1243,7 @@
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>irmawatiidris1976@gmail.com</t>
     </r>
@@ -5386,9 +5389,6 @@
     <t>Serius pahu'u</t>
   </si>
   <si>
-    <t>Analis Keuangan</t>
-  </si>
-  <si>
     <t>198311112014101003</t>
   </si>
   <si>
@@ -5485,9 +5485,6 @@
     <t xml:space="preserve">Belawa </t>
   </si>
   <si>
-    <t>17-03-1994</t>
-  </si>
-  <si>
     <t>polmas</t>
   </si>
   <si>
@@ -5557,10 +5554,100 @@
     <t>rushanrusli@gmail.com</t>
   </si>
   <si>
-    <t>21/04/1988</t>
-  </si>
-  <si>
-    <t>21/4/1988</t>
+    <t>Tehnik Pengairan</t>
+  </si>
+  <si>
+    <t>199708152022032010</t>
+  </si>
+  <si>
+    <t>085163590519</t>
+  </si>
+  <si>
+    <t>NURPATIMA</t>
+  </si>
+  <si>
+    <t>Verifikator Keuangan</t>
+  </si>
+  <si>
+    <t>nurpatima@gmail.com</t>
+  </si>
+  <si>
+    <t>849554402730169000</t>
+  </si>
+  <si>
+    <t>459672525374271000</t>
+  </si>
+  <si>
+    <t>911566096258177000</t>
+  </si>
+  <si>
+    <t>807006633669587000</t>
+  </si>
+  <si>
+    <t>846803304754119000</t>
+  </si>
+  <si>
+    <t>135742790342525000</t>
+  </si>
+  <si>
+    <t>188085191659485000</t>
+  </si>
+  <si>
+    <t>717031895479988000</t>
+  </si>
+  <si>
+    <t>414212358906171000</t>
+  </si>
+  <si>
+    <t>865453108557349000</t>
+  </si>
+  <si>
+    <t>352782285393646000</t>
+  </si>
+  <si>
+    <t>819950307868545000</t>
+  </si>
+  <si>
+    <t>828466953145709000</t>
+  </si>
+  <si>
+    <t>410139934548878000</t>
+  </si>
+  <si>
+    <t>974997149712197000</t>
+  </si>
+  <si>
+    <t>333040658412001000</t>
+  </si>
+  <si>
+    <t>413285156152683000</t>
+  </si>
+  <si>
+    <t>938047800766538000</t>
+  </si>
+  <si>
+    <t>701471335940569000</t>
+  </si>
+  <si>
+    <t>871635074514566000</t>
+  </si>
+  <si>
+    <t>815947482934781000</t>
+  </si>
+  <si>
+    <t>407723030603133000</t>
+  </si>
+  <si>
+    <t>671000122295757000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HERMAN HADDANG</t>
+  </si>
+  <si>
+    <t>198301022007011006</t>
   </si>
 </sst>
 </file>
@@ -5581,23 +5668,27 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5669,7 +5760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5696,15 +5787,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6837,11 +6931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI104"/>
+  <dimension ref="A1:BI106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7448,8 +7542,8 @@
         <v>45292</v>
       </c>
       <c r="BH4" s="5"/>
-      <c r="BI4" s="4" t="s">
-        <v>91</v>
+      <c r="BI4" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7627,8 +7721,8 @@
         <v>45292</v>
       </c>
       <c r="BH5" s="5"/>
-      <c r="BI5" s="4" t="s">
-        <v>91</v>
+      <c r="BI5" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7780,8 +7874,8 @@
         <v>45292</v>
       </c>
       <c r="BH6" s="5"/>
-      <c r="BI6" s="4" t="s">
-        <v>91</v>
+      <c r="BI6" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7937,8 +8031,8 @@
         <v>45292</v>
       </c>
       <c r="BH7" s="5"/>
-      <c r="BI7" s="4" t="s">
-        <v>91</v>
+      <c r="BI7" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8106,8 +8200,8 @@
         <v>45292</v>
       </c>
       <c r="BH8" s="5"/>
-      <c r="BI8" s="4" t="s">
-        <v>91</v>
+      <c r="BI8" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8271,8 +8365,8 @@
         <v>45292</v>
       </c>
       <c r="BH9" s="5"/>
-      <c r="BI9" s="4" t="s">
-        <v>96</v>
+      <c r="BI9" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8432,8 +8526,8 @@
         <v>45292</v>
       </c>
       <c r="BH10" s="5"/>
-      <c r="BI10" s="4" t="s">
-        <v>96</v>
+      <c r="BI10" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="52.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8599,8 +8693,8 @@
         <v>45292</v>
       </c>
       <c r="BH11" s="5"/>
-      <c r="BI11" s="4" t="s">
-        <v>96</v>
+      <c r="BI11" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8766,8 +8860,8 @@
         <v>45292</v>
       </c>
       <c r="BH12" s="5"/>
-      <c r="BI12" s="4" t="s">
-        <v>96</v>
+      <c r="BI12" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8820,8 +8914,8 @@
       <c r="Q13" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>1811</v>
+      <c r="R13" s="12" t="s">
+        <v>1809</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>64</v>
@@ -8933,8 +9027,8 @@
         <v>45292</v>
       </c>
       <c r="BH13" s="5"/>
-      <c r="BI13" s="4" t="s">
-        <v>96</v>
+      <c r="BI13" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9100,8 +9194,8 @@
         <v>45292</v>
       </c>
       <c r="BH14" s="5"/>
-      <c r="BI14" s="4" t="s">
-        <v>96</v>
+      <c r="BI14" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9273,8 +9367,8 @@
         <v>45292</v>
       </c>
       <c r="BH15" s="5"/>
-      <c r="BI15" s="4" t="s">
-        <v>96</v>
+      <c r="BI15" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9442,8 +9536,8 @@
         <v>45292</v>
       </c>
       <c r="BH16" s="5"/>
-      <c r="BI16" s="4" t="s">
-        <v>96</v>
+      <c r="BI16" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9611,8 +9705,8 @@
         <v>45292</v>
       </c>
       <c r="BH17" s="5"/>
-      <c r="BI17" s="4" t="s">
-        <v>96</v>
+      <c r="BI17" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9778,8 +9872,8 @@
         <v>45292</v>
       </c>
       <c r="BH18" s="5"/>
-      <c r="BI18" s="4" t="s">
-        <v>96</v>
+      <c r="BI18" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9935,8 +10029,8 @@
         <v>45292</v>
       </c>
       <c r="BH19" s="5"/>
-      <c r="BI19" s="4" t="s">
-        <v>96</v>
+      <c r="BI19" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="52.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10102,8 +10196,8 @@
         <v>45292</v>
       </c>
       <c r="BH20" s="5"/>
-      <c r="BI20" s="4" t="s">
-        <v>96</v>
+      <c r="BI20" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10257,8 +10351,8 @@
         <v>45292</v>
       </c>
       <c r="BH21" s="5"/>
-      <c r="BI21" s="4" t="s">
-        <v>96</v>
+      <c r="BI21" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10422,8 +10516,8 @@
         <v>45292</v>
       </c>
       <c r="BH22" s="5"/>
-      <c r="BI22" s="4" t="s">
-        <v>96</v>
+      <c r="BI22" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10577,8 +10671,8 @@
         <v>45292</v>
       </c>
       <c r="BH23" s="5"/>
-      <c r="BI23" s="4" t="s">
-        <v>96</v>
+      <c r="BI23" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10744,8 +10838,8 @@
         <v>45292</v>
       </c>
       <c r="BH24" s="5"/>
-      <c r="BI24" s="4" t="s">
-        <v>96</v>
+      <c r="BI24" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10907,8 +11001,8 @@
         <v>45292</v>
       </c>
       <c r="BH25" s="5"/>
-      <c r="BI25" s="4" t="s">
-        <v>96</v>
+      <c r="BI25" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11066,8 +11160,8 @@
         <v>45292</v>
       </c>
       <c r="BH26" s="5"/>
-      <c r="BI26" s="4" t="s">
-        <v>96</v>
+      <c r="BI26" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11122,7 +11216,7 @@
       <c r="Q27" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="12" t="s">
         <v>653</v>
       </c>
       <c r="S27" s="5" t="s">
@@ -11231,8 +11325,8 @@
         <v>45292</v>
       </c>
       <c r="BH27" s="5"/>
-      <c r="BI27" s="4" t="s">
-        <v>96</v>
+      <c r="BI27" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11245,7 +11339,9 @@
       <c r="C28" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="14" t="s">
+        <v>1818</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>671</v>
       </c>
@@ -11277,8 +11373,8 @@
       <c r="O28" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="P28" s="12" t="s">
-        <v>1812</v>
+      <c r="P28" s="11" t="s">
+        <v>1810</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>675</v>
@@ -11394,8 +11490,8 @@
         <v>45292</v>
       </c>
       <c r="BH28" s="5"/>
-      <c r="BI28" s="4" t="s">
-        <v>96</v>
+      <c r="BI28" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:61" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11450,8 +11546,8 @@
       <c r="Q29" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="R29" s="13" t="s">
-        <v>1813</v>
+      <c r="R29" s="12" t="s">
+        <v>1811</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>64</v>
@@ -11557,8 +11653,8 @@
         <v>45292</v>
       </c>
       <c r="BH29" s="5"/>
-      <c r="BI29" s="4" t="s">
-        <v>96</v>
+      <c r="BI29" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11720,8 +11816,8 @@
         <v>45292</v>
       </c>
       <c r="BH30" s="5"/>
-      <c r="BI30" s="4" t="s">
-        <v>96</v>
+      <c r="BI30" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11881,8 +11977,8 @@
         <v>45292</v>
       </c>
       <c r="BH31" s="5"/>
-      <c r="BI31" s="4" t="s">
-        <v>96</v>
+      <c r="BI31" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12036,8 +12132,8 @@
         <v>45292</v>
       </c>
       <c r="BH32" s="5"/>
-      <c r="BI32" s="4" t="s">
-        <v>96</v>
+      <c r="BI32" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12205,8 +12301,8 @@
         <v>45292</v>
       </c>
       <c r="BH33" s="5"/>
-      <c r="BI33" s="4" t="s">
-        <v>96</v>
+      <c r="BI33" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12358,8 +12454,8 @@
         <v>45292</v>
       </c>
       <c r="BH34" s="5"/>
-      <c r="BI34" s="4" t="s">
-        <v>96</v>
+      <c r="BI34" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12525,8 +12621,8 @@
         <v>45292</v>
       </c>
       <c r="BH35" s="5"/>
-      <c r="BI35" s="4" t="s">
-        <v>96</v>
+      <c r="BI35" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12680,8 +12776,8 @@
         <v>45292</v>
       </c>
       <c r="BH36" s="5"/>
-      <c r="BI36" s="4" t="s">
-        <v>96</v>
+      <c r="BI36" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12847,8 +12943,8 @@
         <v>45292</v>
       </c>
       <c r="BH37" s="5"/>
-      <c r="BI37" s="4" t="s">
-        <v>96</v>
+      <c r="BI37" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13002,8 +13098,8 @@
         <v>45292</v>
       </c>
       <c r="BH38" s="5"/>
-      <c r="BI38" s="4" t="s">
-        <v>96</v>
+      <c r="BI38" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13171,8 +13267,8 @@
         <v>45292</v>
       </c>
       <c r="BH39" s="5"/>
-      <c r="BI39" s="4" t="s">
-        <v>96</v>
+      <c r="BI39" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13346,8 +13442,8 @@
         <v>45292</v>
       </c>
       <c r="BH40" s="5"/>
-      <c r="BI40" s="4" t="s">
-        <v>96</v>
+      <c r="BI40" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13495,8 +13591,8 @@
         <v>45292</v>
       </c>
       <c r="BH41" s="5"/>
-      <c r="BI41" s="4" t="s">
-        <v>96</v>
+      <c r="BI41" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13654,8 +13750,8 @@
         <v>45292</v>
       </c>
       <c r="BH42" s="5"/>
-      <c r="BI42" s="4" t="s">
-        <v>96</v>
+      <c r="BI42" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13795,8 +13891,8 @@
         <v>45292</v>
       </c>
       <c r="BH43" s="5"/>
-      <c r="BI43" s="4" t="s">
-        <v>96</v>
+      <c r="BI43" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13954,8 +14050,8 @@
         <v>45292</v>
       </c>
       <c r="BH44" s="5"/>
-      <c r="BI44" s="4" t="s">
-        <v>96</v>
+      <c r="BI44" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14117,8 +14213,8 @@
         <v>45292</v>
       </c>
       <c r="BH45" s="5"/>
-      <c r="BI45" s="4" t="s">
-        <v>96</v>
+      <c r="BI45" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14280,8 +14376,8 @@
         <v>45292</v>
       </c>
       <c r="BH46" s="5"/>
-      <c r="BI46" s="4" t="s">
-        <v>96</v>
+      <c r="BI46" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14447,8 +14543,8 @@
         <v>45292</v>
       </c>
       <c r="BH47" s="5"/>
-      <c r="BI47" s="4" t="s">
-        <v>96</v>
+      <c r="BI47" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14610,8 +14706,8 @@
         <v>45292</v>
       </c>
       <c r="BH48" s="5"/>
-      <c r="BI48" s="4" t="s">
-        <v>96</v>
+      <c r="BI48" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:61" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14771,8 +14867,8 @@
         <v>45292</v>
       </c>
       <c r="BH49" s="5"/>
-      <c r="BI49" s="4" t="s">
-        <v>96</v>
+      <c r="BI49" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14825,7 +14921,7 @@
       <c r="Q50" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="R50" s="13" t="s">
+      <c r="R50" s="12" t="s">
         <v>1150</v>
       </c>
       <c r="S50" s="5" t="s">
@@ -14938,8 +15034,8 @@
         <v>45292</v>
       </c>
       <c r="BH50" s="5"/>
-      <c r="BI50" s="4" t="s">
-        <v>96</v>
+      <c r="BI50" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14992,7 +15088,7 @@
       <c r="Q51" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="12" t="s">
         <v>1176</v>
       </c>
       <c r="S51" s="5" t="s">
@@ -15105,8 +15201,8 @@
         <v>45292</v>
       </c>
       <c r="BH51" s="5"/>
-      <c r="BI51" s="4" t="s">
-        <v>96</v>
+      <c r="BI51" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15159,8 +15255,8 @@
       <c r="Q52" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="R52" s="13" t="s">
-        <v>1814</v>
+      <c r="R52" s="12" t="s">
+        <v>1812</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>64</v>
@@ -15272,8 +15368,8 @@
         <v>45292</v>
       </c>
       <c r="BH52" s="5"/>
-      <c r="BI52" s="4" t="s">
-        <v>96</v>
+      <c r="BI52" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15433,8 +15529,8 @@
         <v>45292</v>
       </c>
       <c r="BH53" s="5"/>
-      <c r="BI53" s="4" t="s">
-        <v>96</v>
+      <c r="BI53" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15487,7 +15583,7 @@
       <c r="Q54" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="R54" s="13" t="s">
+      <c r="R54" s="12" t="s">
         <v>1241</v>
       </c>
       <c r="S54" s="5" t="s">
@@ -15600,39 +15696,43 @@
         <v>45292</v>
       </c>
       <c r="BH54" s="5"/>
-      <c r="BI54" s="4" t="s">
-        <v>96</v>
+      <c r="BI54" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>1146</v>
+      <c r="B55" s="13" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="I55" s="6">
-        <v>28122</v>
+        <v>35657</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>57</v>
+      <c r="K55" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>58</v>
@@ -15640,162 +15740,94 @@
       <c r="M55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="R55" s="13" t="s">
-        <v>1815</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="U55" s="6">
-        <v>39101</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>1262</v>
-      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>1819</v>
+      </c>
+      <c r="S55" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="T55" s="5"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="Z55" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AA55" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AB55" s="6">
-        <v>40562</v>
-      </c>
-      <c r="AC55" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AD55" s="6">
-        <v>40567</v>
-      </c>
-      <c r="AE55" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AF55" s="6">
-        <v>42541</v>
-      </c>
-      <c r="AG55" s="5" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AH55" s="6">
-        <v>42925</v>
-      </c>
-      <c r="AI55" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ55" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="AK55" s="6">
-        <v>39889</v>
-      </c>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="6"/>
       <c r="AL55" s="5"/>
-      <c r="AM55" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="AN55" s="6">
-        <v>40182</v>
-      </c>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="6"/>
       <c r="AO55" s="5"/>
-      <c r="AP55" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AQ55" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AR55" s="6">
-        <v>1462</v>
-      </c>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="6"/>
       <c r="AS55" s="5"/>
-      <c r="AT55" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AU55" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AV55" s="6">
-        <v>1462</v>
-      </c>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="6"/>
       <c r="AW55" s="5"/>
-      <c r="AX55" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AY55" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AZ55" s="6">
-        <v>25569</v>
-      </c>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="6"/>
       <c r="BA55" s="5"/>
-      <c r="BB55" s="5" t="s">
-        <v>985</v>
-      </c>
+      <c r="BB55" s="5"/>
       <c r="BC55" s="5"/>
-      <c r="BD55" s="6">
-        <v>1462</v>
-      </c>
-      <c r="BE55" s="5" t="s">
-        <v>931</v>
-      </c>
+      <c r="BD55" s="6"/>
+      <c r="BE55" s="5"/>
       <c r="BF55" s="5"/>
-      <c r="BG55" s="7">
-        <v>45292</v>
-      </c>
+      <c r="BG55" s="7"/>
       <c r="BH55" s="5"/>
-      <c r="BI55" s="4" t="s">
-        <v>96</v>
+      <c r="BI55" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:61" ht="52.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8"/>
       <c r="E56" s="5" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>1272</v>
+        <v>1146</v>
       </c>
       <c r="I56" s="6">
-        <v>24837</v>
+        <v>28122</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>58</v>
@@ -15804,81 +15836,81 @@
         <v>59</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>1273</v>
+        <v>1237</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>1079</v>
+        <v>299</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>1275</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>90</v>
+        <v>1260</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>1813</v>
       </c>
       <c r="S56" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="U56" s="6">
-        <v>33606</v>
+        <v>39101</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="AA56" s="5" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="AB56" s="6">
-        <v>42159</v>
+        <v>40562</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>1282</v>
+        <v>1258</v>
       </c>
       <c r="AD56" s="6">
-        <v>41444</v>
+        <v>40567</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="AF56" s="6">
-        <v>42661</v>
+        <v>42541</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>1159</v>
+        <v>1268</v>
       </c>
       <c r="AH56" s="6">
-        <v>25569</v>
+        <v>42925</v>
       </c>
       <c r="AI56" s="5" t="s">
         <v>176</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>1284</v>
+        <v>710</v>
       </c>
       <c r="AK56" s="6">
-        <v>41337</v>
+        <v>39889</v>
       </c>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="AN56" s="6">
-        <v>41726</v>
+        <v>40182</v>
       </c>
       <c r="AO56" s="5"/>
       <c r="AP56" s="5" t="s">
@@ -15892,55 +15924,55 @@
       </c>
       <c r="AS56" s="5"/>
       <c r="AT56" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="AU56" s="5"/>
+        <v>1269</v>
+      </c>
+      <c r="AU56" s="5" t="s">
+        <v>1269</v>
+      </c>
       <c r="AV56" s="6">
-        <v>30460</v>
+        <v>1462</v>
       </c>
       <c r="AW56" s="5"/>
       <c r="AX56" s="5" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="AZ56" s="6">
-        <v>31539</v>
+        <v>25569</v>
       </c>
       <c r="BA56" s="5"/>
       <c r="BB56" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="BC56" s="5" t="s">
-        <v>1288</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="BC56" s="5"/>
       <c r="BD56" s="6">
-        <v>31417</v>
-      </c>
-      <c r="BE56" s="5"/>
+        <v>1462</v>
+      </c>
+      <c r="BE56" s="5" t="s">
+        <v>931</v>
+      </c>
       <c r="BF56" s="5"/>
       <c r="BG56" s="7">
         <v>45292</v>
       </c>
       <c r="BH56" s="5"/>
-      <c r="BI56" s="4" t="s">
-        <v>96</v>
+      <c r="BI56" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:61" ht="52.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1289</v>
+        <v>1270</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>599</v>
-      </c>
+      <c r="D57" s="8"/>
       <c r="E57" s="5" t="s">
-        <v>1290</v>
+        <v>1271</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>91</v>
@@ -15949,16 +15981,16 @@
         <v>215</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>601</v>
+        <v>1272</v>
       </c>
       <c r="I57" s="6">
-        <v>25303</v>
+        <v>24837</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>58</v>
@@ -15967,59 +15999,59 @@
         <v>59</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>956</v>
+        <v>1079</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>1294</v>
+        <v>90</v>
       </c>
       <c r="S57" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>1295</v>
+        <v>1276</v>
       </c>
       <c r="U57" s="6">
-        <v>34773</v>
+        <v>33606</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>1296</v>
+        <v>1277</v>
       </c>
       <c r="W57" s="5"/>
       <c r="X57" s="5" t="s">
-        <v>1297</v>
+        <v>1278</v>
       </c>
       <c r="Y57" s="5" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="Z57" s="5" t="s">
-        <v>1299</v>
+        <v>1280</v>
       </c>
       <c r="AA57" s="5" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="AB57" s="6">
         <v>42159</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="AD57" s="6">
-        <v>41438</v>
+        <v>41444</v>
       </c>
       <c r="AE57" s="5" t="s">
-        <v>1301</v>
+        <v>1283</v>
       </c>
       <c r="AF57" s="6">
-        <v>42159</v>
+        <v>42661</v>
       </c>
       <c r="AG57" s="5" t="s">
         <v>1159</v>
@@ -16031,7 +16063,7 @@
         <v>176</v>
       </c>
       <c r="AJ57" s="5" t="s">
-        <v>1302</v>
+        <v>1284</v>
       </c>
       <c r="AK57" s="6">
         <v>41337</v>
@@ -16045,43 +16077,41 @@
       </c>
       <c r="AO57" s="5"/>
       <c r="AP57" s="5" t="s">
-        <v>1303</v>
+        <v>1269</v>
       </c>
       <c r="AQ57" s="5" t="s">
-        <v>1304</v>
+        <v>1269</v>
       </c>
       <c r="AR57" s="6">
-        <v>30467</v>
+        <v>1462</v>
       </c>
       <c r="AS57" s="5"/>
       <c r="AT57" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="AU57" s="5" t="s">
-        <v>1306</v>
-      </c>
+        <v>1285</v>
+      </c>
+      <c r="AU57" s="5"/>
       <c r="AV57" s="6">
-        <v>31537</v>
+        <v>30460</v>
       </c>
       <c r="AW57" s="5"/>
       <c r="AX57" s="5" t="s">
-        <v>506</v>
+        <v>1286</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>1307</v>
+        <v>1287</v>
       </c>
       <c r="AZ57" s="6">
-        <v>32639</v>
+        <v>31539</v>
       </c>
       <c r="BA57" s="5"/>
       <c r="BB57" s="5" t="s">
-        <v>956</v>
+        <v>982</v>
       </c>
       <c r="BC57" s="5" t="s">
-        <v>1307</v>
+        <v>1288</v>
       </c>
       <c r="BD57" s="6">
-        <v>32817</v>
+        <v>31417</v>
       </c>
       <c r="BE57" s="5"/>
       <c r="BF57" s="5"/>
@@ -16089,8 +16119,8 @@
         <v>45292</v>
       </c>
       <c r="BH57" s="5"/>
-      <c r="BI57" s="4" t="s">
-        <v>96</v>
+      <c r="BI57" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16098,14 +16128,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>1309</v>
+        <v>599</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1310</v>
+        <v>1290</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>91</v>
@@ -16114,10 +16144,10 @@
         <v>215</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>428</v>
+        <v>601</v>
       </c>
       <c r="I58" s="6">
-        <v>27267</v>
+        <v>25303</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>56</v>
@@ -16132,59 +16162,59 @@
         <v>59</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>1311</v>
+        <v>1291</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>1239</v>
+        <v>956</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>1313</v>
+        <v>1293</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="S58" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="U58" s="6">
-        <v>38267</v>
+        <v>34773</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>1316</v>
+        <v>1296</v>
       </c>
       <c r="W58" s="5"/>
       <c r="X58" s="5" t="s">
-        <v>1244</v>
+        <v>1297</v>
       </c>
       <c r="Y58" s="5" t="s">
-        <v>1245</v>
+        <v>1298</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>1317</v>
+        <v>1299</v>
       </c>
       <c r="AA58" s="5" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
       <c r="AB58" s="6">
         <v>42159</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>1310</v>
+        <v>1290</v>
       </c>
       <c r="AD58" s="6">
-        <v>41439</v>
+        <v>41438</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="AF58" s="6">
-        <v>42696</v>
+        <v>42159</v>
       </c>
       <c r="AG58" s="5" t="s">
         <v>1159</v>
@@ -16196,7 +16226,7 @@
         <v>176</v>
       </c>
       <c r="AJ58" s="5" t="s">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="AK58" s="6">
         <v>41337</v>
@@ -16210,69 +16240,67 @@
       </c>
       <c r="AO58" s="5"/>
       <c r="AP58" s="5" t="s">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="AQ58" s="5" t="s">
-        <v>1322</v>
+        <v>1304</v>
       </c>
       <c r="AR58" s="6">
-        <v>32318</v>
+        <v>30467</v>
       </c>
       <c r="AS58" s="5"/>
       <c r="AT58" s="5" t="s">
-        <v>1323</v>
+        <v>1305</v>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>1324</v>
+        <v>1306</v>
       </c>
       <c r="AV58" s="6">
-        <v>33397</v>
+        <v>31537</v>
       </c>
       <c r="AW58" s="5"/>
       <c r="AX58" s="5" t="s">
-        <v>1325</v>
+        <v>506</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="AZ58" s="6">
-        <v>34471</v>
+        <v>32639</v>
       </c>
       <c r="BA58" s="5"/>
       <c r="BB58" s="5" t="s">
-        <v>1327</v>
+        <v>956</v>
       </c>
       <c r="BC58" s="5" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="BD58" s="6">
-        <v>34471</v>
-      </c>
-      <c r="BE58" s="5" t="s">
-        <v>1328</v>
-      </c>
+        <v>32817</v>
+      </c>
+      <c r="BE58" s="5"/>
       <c r="BF58" s="5"/>
       <c r="BG58" s="7">
         <v>45292</v>
       </c>
       <c r="BH58" s="5"/>
-      <c r="BI58" s="4" t="s">
-        <v>96</v>
+      <c r="BI58" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:61" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>599</v>
+        <v>1309</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>91</v>
@@ -16281,10 +16309,10 @@
         <v>215</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>1331</v>
+        <v>428</v>
       </c>
       <c r="I59" s="6">
-        <v>35635</v>
+        <v>27267</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>56</v>
@@ -16299,69 +16327,71 @@
         <v>59</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>1334</v>
+        <v>1239</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="S59" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>1337</v>
+        <v>1315</v>
       </c>
       <c r="U59" s="6">
-        <v>40863</v>
+        <v>38267</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="W59" s="5"/>
       <c r="X59" s="5" t="s">
-        <v>1339</v>
+        <v>1244</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>1340</v>
+        <v>1245</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="AA59" s="5" t="s">
-        <v>1342</v>
+        <v>1318</v>
       </c>
       <c r="AB59" s="6">
         <v>42159</v>
       </c>
       <c r="AC59" s="5" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="AD59" s="6">
-        <v>41585</v>
-      </c>
-      <c r="AE59" s="5"/>
+        <v>41439</v>
+      </c>
+      <c r="AE59" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="AF59" s="6">
-        <v>1462</v>
+        <v>42696</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>1343</v>
+        <v>1159</v>
       </c>
       <c r="AH59" s="6">
         <v>25569</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>586</v>
+        <v>176</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>1344</v>
+        <v>1320</v>
       </c>
       <c r="AK59" s="6">
         <v>41337</v>
@@ -16375,52 +16405,54 @@
       </c>
       <c r="AO59" s="5"/>
       <c r="AP59" s="5" t="s">
-        <v>1345</v>
+        <v>1321</v>
       </c>
       <c r="AQ59" s="5" t="s">
-        <v>1269</v>
+        <v>1322</v>
       </c>
       <c r="AR59" s="6">
-        <v>1462</v>
+        <v>32318</v>
       </c>
       <c r="AS59" s="5"/>
       <c r="AT59" s="5" t="s">
-        <v>1346</v>
+        <v>1323</v>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>1269</v>
+        <v>1324</v>
       </c>
       <c r="AV59" s="6">
-        <v>1462</v>
+        <v>33397</v>
       </c>
       <c r="AW59" s="5"/>
       <c r="AX59" s="5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AY59" s="5"/>
+        <v>1325</v>
+      </c>
+      <c r="AY59" s="5" t="s">
+        <v>1326</v>
+      </c>
       <c r="AZ59" s="6">
-        <v>1462</v>
+        <v>34471</v>
       </c>
       <c r="BA59" s="5"/>
       <c r="BB59" s="5" t="s">
-        <v>1021</v>
+        <v>1327</v>
       </c>
       <c r="BC59" s="5" t="s">
-        <v>1348</v>
+        <v>1326</v>
       </c>
       <c r="BD59" s="6">
-        <v>39630</v>
+        <v>34471</v>
       </c>
       <c r="BE59" s="5" t="s">
-        <v>931</v>
+        <v>1328</v>
       </c>
       <c r="BF59" s="5"/>
       <c r="BG59" s="7">
         <v>45292</v>
       </c>
       <c r="BH59" s="5"/>
-      <c r="BI59" s="4" t="s">
-        <v>96</v>
+      <c r="BI59" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16428,14 +16460,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>91</v>
@@ -16444,16 +16476,16 @@
         <v>215</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>626</v>
+        <v>1331</v>
       </c>
       <c r="I60" s="6">
-        <v>28398</v>
+        <v>35635</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>58</v>
@@ -16462,62 +16494,60 @@
         <v>59</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="S60" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="U60" s="6">
-        <v>41093</v>
+        <v>40863</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="W60" s="5"/>
       <c r="X60" s="5" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
       <c r="AB60" s="6">
         <v>42159</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="AD60" s="6">
-        <v>41698</v>
-      </c>
-      <c r="AE60" s="5" t="s">
-        <v>1362</v>
-      </c>
+        <v>41585</v>
+      </c>
+      <c r="AE60" s="5"/>
       <c r="AF60" s="6">
-        <v>42661</v>
+        <v>1462</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>1159</v>
+        <v>1343</v>
       </c>
       <c r="AH60" s="6">
         <v>25569</v>
@@ -16526,7 +16556,7 @@
         <v>586</v>
       </c>
       <c r="AJ60" s="5" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
       <c r="AK60" s="6">
         <v>41337</v>
@@ -16540,43 +16570,41 @@
       </c>
       <c r="AO60" s="5"/>
       <c r="AP60" s="5" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
       <c r="AQ60" s="5" t="s">
-        <v>1365</v>
+        <v>1269</v>
       </c>
       <c r="AR60" s="6">
-        <v>33031</v>
+        <v>1462</v>
       </c>
       <c r="AS60" s="5"/>
       <c r="AT60" s="5" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="AU60" s="5" t="s">
-        <v>1367</v>
+        <v>1269</v>
       </c>
       <c r="AV60" s="6">
-        <v>34127</v>
+        <v>1462</v>
       </c>
       <c r="AW60" s="5"/>
       <c r="AX60" s="5" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AY60" s="5" t="s">
-        <v>1369</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="AY60" s="5"/>
       <c r="AZ60" s="6">
-        <v>35212</v>
+        <v>1462</v>
       </c>
       <c r="BA60" s="5"/>
       <c r="BB60" s="5" t="s">
-        <v>1370</v>
+        <v>1021</v>
       </c>
       <c r="BC60" s="5" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
       <c r="BD60" s="6">
-        <v>35212</v>
+        <v>39630</v>
       </c>
       <c r="BE60" s="5" t="s">
         <v>931</v>
@@ -16586,8 +16614,8 @@
         <v>45292</v>
       </c>
       <c r="BH60" s="5"/>
-      <c r="BI60" s="4" t="s">
-        <v>96</v>
+      <c r="BI60" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16595,14 +16623,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1372</v>
+        <v>1349</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>1373</v>
+        <v>599</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1374</v>
+        <v>1350</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>91</v>
@@ -16611,10 +16639,10 @@
         <v>215</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="I61" s="6">
-        <v>28483</v>
+        <v>28398</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>56</v>
@@ -16629,56 +16657,56 @@
         <v>59</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>1375</v>
+        <v>1351</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>1376</v>
+        <v>1352</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>871</v>
+        <v>1353</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>1377</v>
+        <v>1354</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>1378</v>
+        <v>1355</v>
       </c>
       <c r="S61" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>1379</v>
+        <v>1356</v>
       </c>
       <c r="U61" s="6">
-        <v>38636</v>
+        <v>41093</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>1380</v>
+        <v>1357</v>
       </c>
       <c r="W61" s="5"/>
       <c r="X61" s="5" t="s">
-        <v>1381</v>
+        <v>1358</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>1383</v>
+        <v>1360</v>
       </c>
       <c r="AA61" s="5" t="s">
-        <v>1384</v>
+        <v>1361</v>
       </c>
       <c r="AB61" s="6">
         <v>42159</v>
       </c>
       <c r="AC61" s="5" t="s">
-        <v>1374</v>
+        <v>1350</v>
       </c>
       <c r="AD61" s="6">
-        <v>41472</v>
+        <v>41698</v>
       </c>
       <c r="AE61" s="5" t="s">
-        <v>1385</v>
+        <v>1362</v>
       </c>
       <c r="AF61" s="6">
         <v>42661</v>
@@ -16693,7 +16721,7 @@
         <v>586</v>
       </c>
       <c r="AJ61" s="5" t="s">
-        <v>1386</v>
+        <v>1363</v>
       </c>
       <c r="AK61" s="6">
         <v>41337</v>
@@ -16707,69 +16735,69 @@
       </c>
       <c r="AO61" s="5"/>
       <c r="AP61" s="5" t="s">
-        <v>1387</v>
+        <v>1364</v>
       </c>
       <c r="AQ61" s="5" t="s">
-        <v>1388</v>
+        <v>1365</v>
       </c>
       <c r="AR61" s="6">
         <v>33031</v>
       </c>
       <c r="AS61" s="5"/>
       <c r="AT61" s="5" t="s">
-        <v>1389</v>
+        <v>1366</v>
       </c>
       <c r="AU61" s="5" t="s">
-        <v>1390</v>
+        <v>1367</v>
       </c>
       <c r="AV61" s="6">
-        <v>34125</v>
+        <v>34127</v>
       </c>
       <c r="AW61" s="5"/>
       <c r="AX61" s="5" t="s">
-        <v>1391</v>
+        <v>1368</v>
       </c>
       <c r="AY61" s="5" t="s">
-        <v>1392</v>
+        <v>1369</v>
       </c>
       <c r="AZ61" s="6">
-        <v>35210</v>
+        <v>35212</v>
       </c>
       <c r="BA61" s="5"/>
       <c r="BB61" s="5" t="s">
-        <v>396</v>
+        <v>1370</v>
       </c>
       <c r="BC61" s="5" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="BD61" s="6">
-        <v>35210</v>
+        <v>35212</v>
       </c>
       <c r="BE61" s="5" t="s">
-        <v>1393</v>
+        <v>931</v>
       </c>
       <c r="BF61" s="5"/>
       <c r="BG61" s="7">
         <v>45292</v>
       </c>
       <c r="BH61" s="5"/>
-      <c r="BI61" s="4" t="s">
-        <v>96</v>
+      <c r="BI61" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1394</v>
+        <v>1372</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>599</v>
+        <v>1373</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>91</v>
@@ -16778,16 +16806,16 @@
         <v>215</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>1396</v>
+        <v>673</v>
       </c>
       <c r="I62" s="6">
-        <v>30401</v>
+        <v>28483</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>58</v>
@@ -16796,59 +16824,59 @@
         <v>59</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>1399</v>
+        <v>871</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>1400</v>
+        <v>1377</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>1401</v>
+        <v>1378</v>
       </c>
       <c r="S62" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>1402</v>
+        <v>1379</v>
       </c>
       <c r="U62" s="6">
-        <v>38932</v>
+        <v>38636</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>1403</v>
+        <v>1380</v>
       </c>
       <c r="W62" s="5"/>
       <c r="X62" s="5" t="s">
-        <v>1404</v>
+        <v>1381</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>1405</v>
+        <v>1382</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="AA62" s="5" t="s">
-        <v>1407</v>
+        <v>1384</v>
       </c>
       <c r="AB62" s="6">
         <v>42159</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="AD62" s="6">
-        <v>41442</v>
+        <v>41472</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>1408</v>
+        <v>1385</v>
       </c>
       <c r="AF62" s="6">
-        <v>42696</v>
+        <v>42661</v>
       </c>
       <c r="AG62" s="5" t="s">
         <v>1159</v>
@@ -16860,7 +16888,7 @@
         <v>586</v>
       </c>
       <c r="AJ62" s="5" t="s">
-        <v>1409</v>
+        <v>1386</v>
       </c>
       <c r="AK62" s="6">
         <v>41337</v>
@@ -16874,54 +16902,54 @@
       </c>
       <c r="AO62" s="5"/>
       <c r="AP62" s="5" t="s">
-        <v>1410</v>
+        <v>1387</v>
       </c>
       <c r="AQ62" s="5" t="s">
-        <v>1411</v>
+        <v>1388</v>
       </c>
       <c r="AR62" s="6">
-        <v>35593</v>
+        <v>33031</v>
       </c>
       <c r="AS62" s="5"/>
       <c r="AT62" s="5" t="s">
-        <v>1412</v>
+        <v>1389</v>
       </c>
       <c r="AU62" s="5" t="s">
-        <v>1413</v>
+        <v>1390</v>
       </c>
       <c r="AV62" s="6">
-        <v>36693</v>
+        <v>34125</v>
       </c>
       <c r="AW62" s="5"/>
       <c r="AX62" s="5" t="s">
-        <v>1414</v>
+        <v>1391</v>
       </c>
       <c r="AY62" s="5" t="s">
-        <v>1415</v>
+        <v>1392</v>
       </c>
       <c r="AZ62" s="6">
-        <v>37777</v>
+        <v>35210</v>
       </c>
       <c r="BA62" s="5"/>
       <c r="BB62" s="5" t="s">
-        <v>1416</v>
+        <v>396</v>
       </c>
       <c r="BC62" s="5" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="BD62" s="6">
-        <v>37747</v>
+        <v>35210</v>
       </c>
       <c r="BE62" s="5" t="s">
-        <v>293</v>
+        <v>1393</v>
       </c>
       <c r="BF62" s="5"/>
       <c r="BG62" s="7">
         <v>45292</v>
       </c>
       <c r="BH62" s="5"/>
-      <c r="BI62" s="4" t="s">
-        <v>96</v>
+      <c r="BI62" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16929,14 +16957,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1418</v>
+        <v>1394</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1419</v>
+        <v>1395</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>91</v>
@@ -16945,16 +16973,16 @@
         <v>215</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>1420</v>
+        <v>1396</v>
       </c>
       <c r="I63" s="6">
-        <v>31215</v>
+        <v>30401</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>58</v>
@@ -16963,69 +16991,71 @@
         <v>59</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>1421</v>
+        <v>1397</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>1422</v>
+        <v>1398</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>299</v>
+        <v>1399</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>1400</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>1423</v>
+        <v>1401</v>
       </c>
       <c r="S63" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>1424</v>
+        <v>1402</v>
       </c>
       <c r="U63" s="6">
-        <v>43455</v>
+        <v>38932</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>1425</v>
+        <v>1403</v>
       </c>
       <c r="W63" s="5"/>
       <c r="X63" s="5" t="s">
-        <v>1426</v>
+        <v>1404</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>1427</v>
+        <v>1405</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>1428</v>
+        <v>1406</v>
       </c>
       <c r="AA63" s="5" t="s">
-        <v>1429</v>
+        <v>1407</v>
       </c>
       <c r="AB63" s="6">
         <v>42159</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>1419</v>
+        <v>1395</v>
       </c>
       <c r="AD63" s="6">
         <v>41442</v>
       </c>
-      <c r="AE63" s="5"/>
+      <c r="AE63" s="5" t="s">
+        <v>1408</v>
+      </c>
       <c r="AF63" s="6">
-        <v>1462</v>
+        <v>42696</v>
       </c>
       <c r="AG63" s="5" t="s">
         <v>1159</v>
       </c>
       <c r="AH63" s="6">
-        <v>42838</v>
+        <v>25569</v>
       </c>
       <c r="AI63" s="5" t="s">
         <v>586</v>
       </c>
       <c r="AJ63" s="5" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="AK63" s="6">
         <v>41337</v>
@@ -17039,89 +17069,87 @@
       </c>
       <c r="AO63" s="5"/>
       <c r="AP63" s="5" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="AQ63" s="5" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="AR63" s="6">
-        <v>35591</v>
+        <v>35593</v>
       </c>
       <c r="AS63" s="5"/>
       <c r="AT63" s="5" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="AU63" s="5" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="AV63" s="6">
-        <v>36700</v>
+        <v>36693</v>
       </c>
       <c r="AW63" s="5"/>
       <c r="AX63" s="5" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="AY63" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="AZ63" s="6">
-        <v>37779</v>
+        <v>37777</v>
       </c>
       <c r="BA63" s="5"/>
       <c r="BB63" s="5" t="s">
-        <v>396</v>
+        <v>1416</v>
       </c>
       <c r="BC63" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="BD63" s="6">
-        <v>37809</v>
+        <v>37747</v>
       </c>
       <c r="BE63" s="5" t="s">
-        <v>1438</v>
+        <v>293</v>
       </c>
       <c r="BF63" s="5"/>
       <c r="BG63" s="7">
         <v>45292</v>
       </c>
       <c r="BH63" s="5"/>
-      <c r="BI63" s="4" t="s">
-        <v>96</v>
+      <c r="BI63" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>569</v>
-      </c>
+        <v>1418</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="I64" s="6">
-        <v>31695</v>
+        <v>31215</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>58</v>
@@ -17130,71 +17158,69 @@
         <v>59</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>1444</v>
+        <v>299</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>1445</v>
+        <v>1400</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>1446</v>
+        <v>1423</v>
       </c>
       <c r="S64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>1447</v>
+        <v>1424</v>
       </c>
       <c r="U64" s="6">
-        <v>41658</v>
+        <v>43455</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>1448</v>
+        <v>1425</v>
       </c>
       <c r="W64" s="5"/>
       <c r="X64" s="5" t="s">
-        <v>1449</v>
+        <v>1426</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>1450</v>
+        <v>1427</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>1451</v>
+        <v>1428</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>1452</v>
+        <v>1429</v>
       </c>
       <c r="AB64" s="6">
         <v>42159</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="AD64" s="6">
-        <v>41469</v>
-      </c>
-      <c r="AE64" s="5" t="s">
-        <v>1453</v>
-      </c>
+        <v>41442</v>
+      </c>
+      <c r="AE64" s="5"/>
       <c r="AF64" s="6">
-        <v>42696</v>
+        <v>1462</v>
       </c>
       <c r="AG64" s="5" t="s">
-        <v>1454</v>
+        <v>1159</v>
       </c>
       <c r="AH64" s="6">
-        <v>43159</v>
+        <v>42838</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>176</v>
+        <v>586</v>
       </c>
       <c r="AJ64" s="5" t="s">
-        <v>1455</v>
+        <v>1430</v>
       </c>
       <c r="AK64" s="6">
         <v>41337</v>
@@ -17208,81 +17234,83 @@
       </c>
       <c r="AO64" s="5"/>
       <c r="AP64" s="5" t="s">
-        <v>1456</v>
+        <v>1431</v>
       </c>
       <c r="AQ64" s="5" t="s">
-        <v>1457</v>
+        <v>1432</v>
       </c>
       <c r="AR64" s="6">
-        <v>35593</v>
+        <v>35591</v>
       </c>
       <c r="AS64" s="5"/>
       <c r="AT64" s="5" t="s">
-        <v>1458</v>
+        <v>1433</v>
       </c>
       <c r="AU64" s="5" t="s">
-        <v>1459</v>
+        <v>1434</v>
       </c>
       <c r="AV64" s="6">
-        <v>37070</v>
+        <v>36700</v>
       </c>
       <c r="AW64" s="5"/>
       <c r="AX64" s="5" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="AY64" s="5" t="s">
-        <v>1461</v>
+        <v>1436</v>
       </c>
       <c r="AZ64" s="6">
-        <v>38152</v>
+        <v>37779</v>
       </c>
       <c r="BA64" s="5"/>
       <c r="BB64" s="5" t="s">
-        <v>1462</v>
+        <v>396</v>
       </c>
       <c r="BC64" s="5" t="s">
-        <v>1463</v>
+        <v>1437</v>
       </c>
       <c r="BD64" s="6">
-        <v>38152</v>
+        <v>37809</v>
       </c>
       <c r="BE64" s="5" t="s">
-        <v>1464</v>
+        <v>1438</v>
       </c>
       <c r="BF64" s="5"/>
       <c r="BG64" s="7">
         <v>45292</v>
       </c>
       <c r="BH64" s="5"/>
-      <c r="BI64" s="4" t="s">
-        <v>96</v>
+      <c r="BI64" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>1439</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1466</v>
+        <v>1440</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>673</v>
+        <v>1441</v>
       </c>
       <c r="I65" s="6">
-        <v>31626</v>
+        <v>31695</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>56</v>
@@ -17297,71 +17325,71 @@
         <v>59</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>1239</v>
+        <v>1444</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>1469</v>
+        <v>1445</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>1470</v>
+        <v>1446</v>
       </c>
       <c r="S65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>1471</v>
+        <v>1447</v>
       </c>
       <c r="U65" s="6">
-        <v>39825</v>
+        <v>41658</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>1472</v>
+        <v>1448</v>
       </c>
       <c r="W65" s="5"/>
       <c r="X65" s="5" t="s">
-        <v>1473</v>
+        <v>1449</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>1474</v>
+        <v>1450</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>1475</v>
+        <v>1451</v>
       </c>
       <c r="AA65" s="5" t="s">
-        <v>1476</v>
+        <v>1452</v>
       </c>
       <c r="AB65" s="6">
         <v>42159</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>1477</v>
+        <v>1440</v>
       </c>
       <c r="AD65" s="6">
-        <v>41444</v>
+        <v>41469</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>1478</v>
+        <v>1453</v>
       </c>
       <c r="AF65" s="6">
         <v>42696</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>1159</v>
+        <v>1454</v>
       </c>
       <c r="AH65" s="6">
-        <v>42838</v>
+        <v>43159</v>
       </c>
       <c r="AI65" s="5" t="s">
-        <v>586</v>
+        <v>176</v>
       </c>
       <c r="AJ65" s="5" t="s">
-        <v>1479</v>
+        <v>1455</v>
       </c>
       <c r="AK65" s="6">
         <v>41337</v>
@@ -17374,27 +17402,31 @@
         <v>41726</v>
       </c>
       <c r="AO65" s="5"/>
-      <c r="AP65" s="5"/>
-      <c r="AQ65" s="5"/>
+      <c r="AP65" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AQ65" s="5" t="s">
+        <v>1457</v>
+      </c>
       <c r="AR65" s="6">
-        <v>1462</v>
+        <v>35593</v>
       </c>
       <c r="AS65" s="5"/>
       <c r="AT65" s="5" t="s">
-        <v>1480</v>
+        <v>1458</v>
       </c>
       <c r="AU65" s="5" t="s">
-        <v>1481</v>
+        <v>1459</v>
       </c>
       <c r="AV65" s="6">
         <v>37070</v>
       </c>
       <c r="AW65" s="5"/>
       <c r="AX65" s="5" t="s">
-        <v>506</v>
+        <v>1460</v>
       </c>
       <c r="AY65" s="5" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="AZ65" s="6">
         <v>38152</v>
@@ -17404,7 +17436,7 @@
         <v>1462</v>
       </c>
       <c r="BC65" s="5" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="BD65" s="6">
         <v>38152</v>
@@ -17417,8 +17449,8 @@
         <v>45292</v>
       </c>
       <c r="BH65" s="5"/>
-      <c r="BI65" s="4" t="s">
-        <v>96</v>
+      <c r="BI65" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17426,14 +17458,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1484</v>
+        <v>1465</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1485</v>
+        <v>1466</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>91</v>
@@ -17442,10 +17474,10 @@
         <v>215</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>373</v>
+        <v>673</v>
       </c>
       <c r="I66" s="6">
-        <v>28525</v>
+        <v>31626</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>56</v>
@@ -17460,143 +17492,143 @@
         <v>59</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>1486</v>
+        <v>1467</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>1487</v>
+        <v>1468</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>871</v>
+        <v>1239</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>1488</v>
+        <v>1469</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>1489</v>
+        <v>1470</v>
       </c>
       <c r="S66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>1490</v>
+        <v>1471</v>
       </c>
       <c r="U66" s="6">
-        <v>42749</v>
+        <v>39825</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
       <c r="W66" s="5"/>
       <c r="X66" s="5" t="s">
-        <v>1492</v>
+        <v>1473</v>
       </c>
       <c r="Y66" s="5" t="s">
-        <v>680</v>
+        <v>1474</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AA66" s="5"/>
+        <v>1475</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>1476</v>
+      </c>
       <c r="AB66" s="6">
-        <v>1462</v>
+        <v>42159</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
       <c r="AD66" s="6">
-        <v>41879</v>
-      </c>
-      <c r="AE66" s="5"/>
+        <v>41444</v>
+      </c>
+      <c r="AE66" s="5" t="s">
+        <v>1478</v>
+      </c>
       <c r="AF66" s="6">
-        <v>1462</v>
+        <v>42696</v>
       </c>
       <c r="AG66" s="5" t="s">
-        <v>1495</v>
+        <v>1159</v>
       </c>
       <c r="AH66" s="6">
-        <v>43108</v>
+        <v>42838</v>
       </c>
       <c r="AI66" s="5" t="s">
         <v>586</v>
       </c>
       <c r="AJ66" s="5" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
       <c r="AK66" s="6">
-        <v>41789</v>
+        <v>41337</v>
       </c>
       <c r="AL66" s="5"/>
       <c r="AM66" s="5" t="s">
-        <v>1497</v>
+        <v>734</v>
       </c>
       <c r="AN66" s="6">
-        <v>42222</v>
+        <v>41726</v>
       </c>
       <c r="AO66" s="5"/>
-      <c r="AP66" s="5" t="s">
-        <v>1498</v>
-      </c>
-      <c r="AQ66" s="5" t="s">
-        <v>1499</v>
-      </c>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
       <c r="AR66" s="6">
-        <v>33025</v>
+        <v>1462</v>
       </c>
       <c r="AS66" s="5"/>
       <c r="AT66" s="5" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="AU66" s="5" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="AV66" s="6">
-        <v>34508</v>
+        <v>37070</v>
       </c>
       <c r="AW66" s="5"/>
       <c r="AX66" s="5" t="s">
-        <v>1502</v>
+        <v>506</v>
       </c>
       <c r="AY66" s="5" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="AZ66" s="6">
-        <v>36284</v>
+        <v>38152</v>
       </c>
       <c r="BA66" s="5"/>
       <c r="BB66" s="5" t="s">
-        <v>956</v>
+        <v>1462</v>
       </c>
       <c r="BC66" s="5" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="BD66" s="6">
-        <v>36304</v>
+        <v>38152</v>
       </c>
       <c r="BE66" s="5" t="s">
-        <v>1505</v>
+        <v>1464</v>
       </c>
       <c r="BF66" s="5"/>
       <c r="BG66" s="7">
         <v>45292</v>
       </c>
       <c r="BH66" s="5"/>
-      <c r="BI66" s="4" t="s">
-        <v>96</v>
+      <c r="BI66" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1507</v>
+        <v>1485</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>91</v>
@@ -17605,10 +17637,10 @@
         <v>215</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>1508</v>
+        <v>373</v>
       </c>
       <c r="I67" s="6">
-        <v>30972</v>
+        <v>28525</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>56</v>
@@ -17623,130 +17655,128 @@
         <v>59</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>1509</v>
+        <v>1486</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>1510</v>
+        <v>1487</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>376</v>
+        <v>871</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>1511</v>
+        <v>1488</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
       <c r="S67" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>1513</v>
+        <v>1490</v>
       </c>
       <c r="U67" s="6">
-        <v>41448</v>
+        <v>42749</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>1514</v>
+        <v>1491</v>
       </c>
       <c r="W67" s="5"/>
       <c r="X67" s="5" t="s">
-        <v>1515</v>
+        <v>1492</v>
       </c>
       <c r="Y67" s="5" t="s">
-        <v>1516</v>
+        <v>680</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>680</v>
+        <v>1493</v>
       </c>
       <c r="AA67" s="5"/>
       <c r="AB67" s="6">
         <v>1462</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>1517</v>
+        <v>1494</v>
       </c>
       <c r="AD67" s="6">
+        <v>41879</v>
+      </c>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="6">
         <v>1462</v>
-      </c>
-      <c r="AE67" s="5" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AF67" s="6">
-        <v>42696</v>
       </c>
       <c r="AG67" s="5" t="s">
         <v>1495</v>
       </c>
       <c r="AH67" s="6">
-        <v>43109</v>
+        <v>43108</v>
       </c>
       <c r="AI67" s="5" t="s">
         <v>586</v>
       </c>
       <c r="AJ67" s="5" t="s">
-        <v>1519</v>
+        <v>1496</v>
       </c>
       <c r="AK67" s="6">
         <v>41789</v>
       </c>
       <c r="AL67" s="5"/>
       <c r="AM67" s="5" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AN67" s="6">
-        <v>43108</v>
+        <v>42222</v>
       </c>
       <c r="AO67" s="5"/>
       <c r="AP67" s="5" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="AQ67" s="5" t="s">
-        <v>1521</v>
+        <v>1499</v>
       </c>
       <c r="AR67" s="6">
-        <v>35591</v>
+        <v>33025</v>
       </c>
       <c r="AS67" s="5"/>
       <c r="AT67" s="5" t="s">
-        <v>1522</v>
+        <v>1500</v>
       </c>
       <c r="AU67" s="5" t="s">
-        <v>1523</v>
+        <v>1501</v>
       </c>
       <c r="AV67" s="6">
-        <v>36697</v>
+        <v>34508</v>
       </c>
       <c r="AW67" s="5"/>
       <c r="AX67" s="5" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="AY67" s="5" t="s">
-        <v>1525</v>
+        <v>1503</v>
       </c>
       <c r="AZ67" s="6">
-        <v>37771</v>
+        <v>36284</v>
       </c>
       <c r="BA67" s="5"/>
       <c r="BB67" s="5" t="s">
-        <v>1370</v>
+        <v>956</v>
       </c>
       <c r="BC67" s="5" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="BD67" s="6">
-        <v>37771</v>
+        <v>36304</v>
       </c>
       <c r="BE67" s="5" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="BF67" s="5"/>
       <c r="BG67" s="7">
         <v>45292</v>
       </c>
       <c r="BH67" s="5"/>
-      <c r="BI67" s="4" t="s">
-        <v>96</v>
+      <c r="BI67" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17754,28 +17784,26 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>1506</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="I68" s="6">
-        <v>27394</v>
+        <v>30972</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>56</v>
@@ -17789,125 +17817,131 @@
       <c r="M68" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N68" s="5"/>
+      <c r="N68" s="5" t="s">
+        <v>1509</v>
+      </c>
       <c r="O68" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="P68" s="5"/>
+        <v>1510</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="Q68" s="5" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="S68" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="U68" s="6">
-        <v>36975</v>
+        <v>41448</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="W68" s="5"/>
       <c r="X68" s="5" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>1538</v>
+        <v>680</v>
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="6">
         <v>1462</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="AD68" s="6">
         <v>1462</v>
       </c>
       <c r="AE68" s="5" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="AF68" s="6">
         <v>42696</v>
       </c>
       <c r="AG68" s="5" t="s">
-        <v>732</v>
+        <v>1495</v>
       </c>
       <c r="AH68" s="6">
-        <v>25569</v>
+        <v>43109</v>
       </c>
       <c r="AI68" s="5" t="s">
         <v>586</v>
       </c>
       <c r="AJ68" s="5" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
       <c r="AK68" s="6">
-        <v>41918</v>
+        <v>41789</v>
       </c>
       <c r="AL68" s="5"/>
       <c r="AM68" s="5" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="AN68" s="6">
-        <v>42222</v>
+        <v>43108</v>
       </c>
       <c r="AO68" s="5"/>
       <c r="AP68" s="5" t="s">
-        <v>1542</v>
+        <v>1520</v>
       </c>
       <c r="AQ68" s="5" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="AR68" s="6">
-        <v>31930</v>
+        <v>35591</v>
       </c>
       <c r="AS68" s="5"/>
       <c r="AT68" s="5" t="s">
-        <v>1544</v>
+        <v>1522</v>
       </c>
       <c r="AU68" s="5" t="s">
-        <v>1545</v>
+        <v>1523</v>
       </c>
       <c r="AV68" s="6">
-        <v>33026</v>
+        <v>36697</v>
       </c>
       <c r="AW68" s="5"/>
       <c r="AX68" s="5" t="s">
-        <v>1546</v>
+        <v>1524</v>
       </c>
       <c r="AY68" s="5" t="s">
-        <v>1547</v>
+        <v>1525</v>
       </c>
       <c r="AZ68" s="6">
-        <v>34118</v>
+        <v>37771</v>
       </c>
       <c r="BA68" s="5"/>
       <c r="BB68" s="5" t="s">
-        <v>1548</v>
+        <v>1370</v>
       </c>
       <c r="BC68" s="5" t="s">
-        <v>1549</v>
+        <v>1526</v>
       </c>
       <c r="BD68" s="6">
-        <v>34118</v>
-      </c>
-      <c r="BE68" s="5"/>
+        <v>37771</v>
+      </c>
+      <c r="BE68" s="5" t="s">
+        <v>1527</v>
+      </c>
       <c r="BF68" s="5"/>
       <c r="BG68" s="7">
         <v>45292</v>
       </c>
       <c r="BH68" s="5"/>
-      <c r="BI68" s="4" t="s">
-        <v>96</v>
+      <c r="BI68" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17915,26 +17949,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>1528</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1551</v>
+        <v>1529</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>242</v>
+        <v>1530</v>
       </c>
       <c r="I69" s="6">
-        <v>25149</v>
+        <v>27394</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>56</v>
@@ -17948,131 +17984,125 @@
       <c r="M69" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N69" s="5" t="s">
-        <v>1552</v>
-      </c>
+      <c r="N69" s="5"/>
       <c r="O69" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>651</v>
-      </c>
+        <v>1531</v>
+      </c>
+      <c r="P69" s="5"/>
       <c r="Q69" s="5" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="U69" s="6">
-        <v>36254</v>
+        <v>36975</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
       <c r="W69" s="5"/>
       <c r="X69" s="5" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="AA69" s="5"/>
       <c r="AB69" s="6">
         <v>1462</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="AD69" s="6">
-        <v>42012</v>
+        <v>1462</v>
       </c>
       <c r="AE69" s="5" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
       <c r="AF69" s="6">
         <v>42696</v>
       </c>
       <c r="AG69" s="5" t="s">
-        <v>1495</v>
+        <v>732</v>
       </c>
       <c r="AH69" s="6">
-        <v>43108</v>
+        <v>25569</v>
       </c>
       <c r="AI69" s="5" t="s">
         <v>586</v>
       </c>
       <c r="AJ69" s="5" t="s">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="AK69" s="6">
-        <v>42086</v>
+        <v>41918</v>
       </c>
       <c r="AL69" s="5"/>
       <c r="AM69" s="5" t="s">
-        <v>1564</v>
+        <v>1497</v>
       </c>
       <c r="AN69" s="6">
-        <v>42550</v>
+        <v>42222</v>
       </c>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5" t="s">
-        <v>1565</v>
+        <v>1542</v>
       </c>
       <c r="AQ69" s="5" t="s">
-        <v>1566</v>
+        <v>1543</v>
       </c>
       <c r="AR69" s="6">
-        <v>29353</v>
+        <v>31930</v>
       </c>
       <c r="AS69" s="5"/>
       <c r="AT69" s="5" t="s">
-        <v>1567</v>
+        <v>1544</v>
       </c>
       <c r="AU69" s="5" t="s">
-        <v>1568</v>
+        <v>1545</v>
       </c>
       <c r="AV69" s="6">
-        <v>30460</v>
+        <v>33026</v>
       </c>
       <c r="AW69" s="5"/>
       <c r="AX69" s="5" t="s">
-        <v>1569</v>
+        <v>1546</v>
       </c>
       <c r="AY69" s="5" t="s">
-        <v>1570</v>
+        <v>1547</v>
       </c>
       <c r="AZ69" s="6">
-        <v>31533</v>
+        <v>34118</v>
       </c>
       <c r="BA69" s="5"/>
       <c r="BB69" s="5" t="s">
-        <v>1571</v>
+        <v>1548</v>
       </c>
       <c r="BC69" s="5" t="s">
-        <v>1572</v>
+        <v>1549</v>
       </c>
       <c r="BD69" s="6">
-        <v>31417</v>
-      </c>
-      <c r="BE69" s="5" t="s">
-        <v>931</v>
-      </c>
+        <v>34118</v>
+      </c>
+      <c r="BE69" s="5"/>
       <c r="BF69" s="5"/>
       <c r="BG69" s="7">
         <v>45292</v>
       </c>
       <c r="BH69" s="5"/>
-      <c r="BI69" s="4" t="s">
-        <v>96</v>
+      <c r="BI69" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18080,14 +18110,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1573</v>
+        <v>1550</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>1574</v>
+        <v>599</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1575</v>
+        <v>1551</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>91</v>
@@ -18096,16 +18126,16 @@
         <v>215</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>1576</v>
+        <v>242</v>
       </c>
       <c r="I70" s="6">
-        <v>28164</v>
+        <v>25149</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>58</v>
@@ -18114,53 +18144,57 @@
         <v>59</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>1577</v>
+        <v>1552</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>1578</v>
+        <v>1553</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>1579</v>
+        <v>651</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>1580</v>
+        <v>1554</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>1581</v>
+        <v>1555</v>
       </c>
       <c r="S70" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>1582</v>
+        <v>1556</v>
       </c>
       <c r="U70" s="6">
-        <v>37751</v>
+        <v>36254</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>1583</v>
+        <v>1557</v>
       </c>
       <c r="W70" s="5"/>
       <c r="X70" s="5" t="s">
-        <v>1584</v>
+        <v>1558</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>1585</v>
+        <v>1559</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>1586</v>
+        <v>1560</v>
       </c>
       <c r="AA70" s="5"/>
       <c r="AB70" s="6">
         <v>1462</v>
       </c>
-      <c r="AC70" s="5"/>
+      <c r="AC70" s="5" t="s">
+        <v>1561</v>
+      </c>
       <c r="AD70" s="6">
-        <v>1462</v>
-      </c>
-      <c r="AE70" s="5"/>
+        <v>42012</v>
+      </c>
+      <c r="AE70" s="5" t="s">
+        <v>1562</v>
+      </c>
       <c r="AF70" s="6">
-        <v>1462</v>
+        <v>42696</v>
       </c>
       <c r="AG70" s="5" t="s">
         <v>1495</v>
@@ -18172,7 +18206,7 @@
         <v>586</v>
       </c>
       <c r="AJ70" s="5" t="s">
-        <v>1587</v>
+        <v>1563</v>
       </c>
       <c r="AK70" s="6">
         <v>42086</v>
@@ -18186,43 +18220,43 @@
       </c>
       <c r="AO70" s="5"/>
       <c r="AP70" s="5" t="s">
-        <v>1588</v>
+        <v>1565</v>
       </c>
       <c r="AQ70" s="5" t="s">
-        <v>1589</v>
+        <v>1566</v>
       </c>
       <c r="AR70" s="6">
-        <v>33024</v>
+        <v>29353</v>
       </c>
       <c r="AS70" s="5"/>
       <c r="AT70" s="5" t="s">
-        <v>1590</v>
+        <v>1567</v>
       </c>
       <c r="AU70" s="5" t="s">
-        <v>1591</v>
+        <v>1568</v>
       </c>
       <c r="AV70" s="6">
-        <v>34118</v>
+        <v>30460</v>
       </c>
       <c r="AW70" s="5"/>
       <c r="AX70" s="5" t="s">
-        <v>620</v>
+        <v>1569</v>
       </c>
       <c r="AY70" s="5" t="s">
-        <v>1592</v>
+        <v>1570</v>
       </c>
       <c r="AZ70" s="6">
-        <v>35210</v>
+        <v>31533</v>
       </c>
       <c r="BA70" s="5"/>
       <c r="BB70" s="5" t="s">
-        <v>956</v>
+        <v>1571</v>
       </c>
       <c r="BC70" s="5" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="BD70" s="6">
-        <v>35210</v>
+        <v>31417</v>
       </c>
       <c r="BE70" s="5" t="s">
         <v>931</v>
@@ -18232,23 +18266,23 @@
         <v>45292</v>
       </c>
       <c r="BH70" s="5"/>
-      <c r="BI70" s="4" t="s">
-        <v>96</v>
+      <c r="BI70" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="9">
-        <v>0</v>
+      <c r="D71" s="4" t="s">
+        <v>1574</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1595</v>
+        <v>1575</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>91</v>
@@ -18257,10 +18291,10 @@
         <v>215</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>850</v>
+        <v>1576</v>
       </c>
       <c r="I71" s="6">
-        <v>30283</v>
+        <v>28164</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>56</v>
@@ -18275,45 +18309,49 @@
         <v>59</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>1596</v>
+        <v>1577</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>1597</v>
+        <v>1578</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>299</v>
+        <v>1579</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1598</v>
+        <v>1580</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>1599</v>
+        <v>1581</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="T71" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>1582</v>
+      </c>
       <c r="U71" s="6">
-        <v>1462</v>
-      </c>
-      <c r="V71" s="5"/>
+        <v>37751</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>1583</v>
+      </c>
       <c r="W71" s="5"/>
       <c r="X71" s="5" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>1601</v>
-      </c>
-      <c r="Z71" s="5"/>
+        <v>1585</v>
+      </c>
+      <c r="Z71" s="5" t="s">
+        <v>1586</v>
+      </c>
       <c r="AA71" s="5"/>
       <c r="AB71" s="6">
         <v>1462</v>
       </c>
-      <c r="AC71" s="5" t="s">
-        <v>1602</v>
-      </c>
+      <c r="AC71" s="5"/>
       <c r="AD71" s="6">
-        <v>42012</v>
+        <v>1462</v>
       </c>
       <c r="AE71" s="5"/>
       <c r="AF71" s="6">
@@ -18329,7 +18367,7 @@
         <v>586</v>
       </c>
       <c r="AJ71" s="5" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="AK71" s="6">
         <v>42086</v>
@@ -18343,69 +18381,69 @@
       </c>
       <c r="AO71" s="5"/>
       <c r="AP71" s="5" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="AQ71" s="5" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="AR71" s="6">
-        <v>34488</v>
+        <v>33024</v>
       </c>
       <c r="AS71" s="5"/>
       <c r="AT71" s="5" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="AU71" s="5" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="AV71" s="6">
-        <v>35583</v>
+        <v>34118</v>
       </c>
       <c r="AW71" s="5"/>
       <c r="AX71" s="5" t="s">
-        <v>1608</v>
+        <v>620</v>
       </c>
       <c r="AY71" s="5" t="s">
-        <v>1609</v>
+        <v>1592</v>
       </c>
       <c r="AZ71" s="6">
-        <v>36693</v>
+        <v>35210</v>
       </c>
       <c r="BA71" s="5"/>
       <c r="BB71" s="5" t="s">
-        <v>1610</v>
+        <v>956</v>
       </c>
       <c r="BC71" s="5" t="s">
-        <v>1611</v>
+        <v>1593</v>
       </c>
       <c r="BD71" s="6">
-        <v>36693</v>
-      </c>
-      <c r="BE71" s="5"/>
+        <v>35210</v>
+      </c>
+      <c r="BE71" s="5" t="s">
+        <v>931</v>
+      </c>
       <c r="BF71" s="5"/>
       <c r="BG71" s="7">
         <v>45292</v>
       </c>
       <c r="BH71" s="5"/>
-      <c r="BI71" s="4" t="s">
-        <v>96</v>
+      <c r="BI71" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>991</v>
+        <v>1594</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="9">
+        <v>0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1613</v>
+        <v>1595</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>91</v>
@@ -18414,16 +18452,16 @@
         <v>215</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>428</v>
+        <v>850</v>
       </c>
       <c r="I72" s="6">
-        <v>31642</v>
+        <v>30283</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>58</v>
@@ -18432,57 +18470,49 @@
         <v>59</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>1614</v>
+        <v>1596</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>1615</v>
+        <v>1597</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>1616</v>
+        <v>1598</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>1617</v>
+        <v>1599</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T72" s="5" t="s">
-        <v>1618</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="T72" s="5"/>
       <c r="U72" s="6">
-        <v>41383</v>
-      </c>
-      <c r="V72" s="5" t="s">
-        <v>1619</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>1621</v>
-      </c>
-      <c r="Z72" s="5" t="s">
-        <v>1622</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="6">
         <v>1462</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="AD72" s="6">
+        <v>42012</v>
+      </c>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="6">
         <v>1462</v>
-      </c>
-      <c r="AE72" s="5" t="s">
-        <v>1624</v>
-      </c>
-      <c r="AF72" s="6">
-        <v>42696</v>
       </c>
       <c r="AG72" s="5" t="s">
         <v>1495</v>
@@ -18494,97 +18524,95 @@
         <v>586</v>
       </c>
       <c r="AJ72" s="5" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="AK72" s="6">
         <v>42086</v>
       </c>
       <c r="AL72" s="5"/>
       <c r="AM72" s="5" t="s">
-        <v>1626</v>
+        <v>1564</v>
       </c>
       <c r="AN72" s="6">
         <v>42550</v>
       </c>
       <c r="AO72" s="5"/>
       <c r="AP72" s="5" t="s">
-        <v>1627</v>
+        <v>1604</v>
       </c>
       <c r="AQ72" s="5" t="s">
-        <v>1628</v>
+        <v>1605</v>
       </c>
       <c r="AR72" s="6">
-        <v>35956</v>
+        <v>34488</v>
       </c>
       <c r="AS72" s="5"/>
       <c r="AT72" s="5" t="s">
-        <v>1629</v>
+        <v>1606</v>
       </c>
       <c r="AU72" s="5" t="s">
-        <v>1630</v>
+        <v>1607</v>
       </c>
       <c r="AV72" s="6">
-        <v>37070</v>
+        <v>35583</v>
       </c>
       <c r="AW72" s="5"/>
       <c r="AX72" s="5" t="s">
-        <v>1631</v>
+        <v>1608</v>
       </c>
       <c r="AY72" s="5" t="s">
-        <v>1632</v>
+        <v>1609</v>
       </c>
       <c r="AZ72" s="6">
-        <v>38152</v>
+        <v>36693</v>
       </c>
       <c r="BA72" s="5"/>
       <c r="BB72" s="5" t="s">
-        <v>985</v>
+        <v>1610</v>
       </c>
       <c r="BC72" s="5" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="BD72" s="6">
-        <v>38152</v>
-      </c>
-      <c r="BE72" s="5" t="s">
-        <v>1634</v>
-      </c>
+        <v>36693</v>
+      </c>
+      <c r="BE72" s="5"/>
       <c r="BF72" s="5"/>
       <c r="BG72" s="7">
         <v>45292</v>
       </c>
       <c r="BH72" s="5"/>
-      <c r="BI72" s="4" t="s">
-        <v>96</v>
+      <c r="BI72" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1635</v>
+        <v>1612</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1636</v>
+        <v>991</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1637</v>
+        <v>1613</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>1638</v>
+        <v>428</v>
       </c>
       <c r="I73" s="6">
-        <v>31299</v>
+        <v>31642</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>56</v>
@@ -18599,56 +18627,60 @@
         <v>59</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>1639</v>
+        <v>1614</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>1640</v>
+        <v>1615</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>532</v>
+        <v>190</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>1641</v>
+        <v>1616</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>1642</v>
+        <v>1617</v>
       </c>
       <c r="S73" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T73" s="5" t="s">
-        <v>1643</v>
+        <v>1618</v>
       </c>
       <c r="U73" s="6">
-        <v>41441</v>
-      </c>
-      <c r="V73" s="5"/>
+        <v>41383</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>1619</v>
+      </c>
       <c r="W73" s="5"/>
       <c r="X73" s="5" t="s">
-        <v>1644</v>
+        <v>1620</v>
       </c>
       <c r="Y73" s="5" t="s">
-        <v>1645</v>
-      </c>
-      <c r="Z73" s="5"/>
+        <v>1621</v>
+      </c>
+      <c r="Z73" s="5" t="s">
+        <v>1622</v>
+      </c>
       <c r="AA73" s="5"/>
       <c r="AB73" s="6">
         <v>1462</v>
       </c>
       <c r="AC73" s="5" t="s">
-        <v>1646</v>
+        <v>1623</v>
       </c>
       <c r="AD73" s="6">
         <v>1462</v>
       </c>
       <c r="AE73" s="5" t="s">
-        <v>1647</v>
+        <v>1624</v>
       </c>
       <c r="AF73" s="6">
         <v>42696</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>1648</v>
+        <v>1495</v>
       </c>
       <c r="AH73" s="6">
         <v>43108</v>
@@ -18657,54 +18689,54 @@
         <v>586</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>1649</v>
+        <v>1625</v>
       </c>
       <c r="AK73" s="6">
         <v>42086</v>
       </c>
       <c r="AL73" s="5"/>
       <c r="AM73" s="5" t="s">
-        <v>1564</v>
+        <v>1626</v>
       </c>
       <c r="AN73" s="6">
         <v>42550</v>
       </c>
       <c r="AO73" s="5"/>
       <c r="AP73" s="5" t="s">
-        <v>1650</v>
+        <v>1627</v>
       </c>
       <c r="AQ73" s="5" t="s">
-        <v>1651</v>
+        <v>1628</v>
       </c>
       <c r="AR73" s="6">
         <v>35956</v>
       </c>
       <c r="AS73" s="5"/>
       <c r="AT73" s="5" t="s">
-        <v>1652</v>
+        <v>1629</v>
       </c>
       <c r="AU73" s="5" t="s">
-        <v>1653</v>
+        <v>1630</v>
       </c>
       <c r="AV73" s="6">
-        <v>37067</v>
+        <v>37070</v>
       </c>
       <c r="AW73" s="5"/>
       <c r="AX73" s="5" t="s">
-        <v>1654</v>
+        <v>1631</v>
       </c>
       <c r="AY73" s="5" t="s">
-        <v>1655</v>
+        <v>1632</v>
       </c>
       <c r="AZ73" s="6">
         <v>38152</v>
       </c>
       <c r="BA73" s="5"/>
       <c r="BB73" s="5" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="BC73" s="5" t="s">
-        <v>1656</v>
+        <v>1633</v>
       </c>
       <c r="BD73" s="6">
         <v>38152</v>
@@ -18717,35 +18749,37 @@
         <v>45292</v>
       </c>
       <c r="BH73" s="5"/>
-      <c r="BI73" s="4" t="s">
-        <v>96</v>
+      <c r="BI73" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>1635</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D74" s="4" t="s">
-        <v>599</v>
+        <v>1636</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>373</v>
+        <v>1638</v>
       </c>
       <c r="I74" s="6">
-        <v>24607</v>
+        <v>31299</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>56</v>
@@ -18760,117 +18794,115 @@
         <v>59</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>1659</v>
+        <v>1639</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>1661</v>
+        <v>532</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>90</v>
+        <v>1642</v>
       </c>
       <c r="S74" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T74" s="5" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="U74" s="6">
-        <v>35831</v>
-      </c>
-      <c r="V74" s="5" t="s">
-        <v>1664</v>
-      </c>
+        <v>41441</v>
+      </c>
+      <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="Y74" s="5" t="s">
-        <v>1666</v>
-      </c>
-      <c r="Z74" s="5" t="s">
-        <v>1667</v>
-      </c>
+        <v>1645</v>
+      </c>
+      <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="6">
         <v>1462</v>
       </c>
-      <c r="AC74" s="5"/>
+      <c r="AC74" s="5" t="s">
+        <v>1646</v>
+      </c>
       <c r="AD74" s="6">
         <v>1462</v>
       </c>
       <c r="AE74" s="5" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="AF74" s="6">
         <v>42696</v>
       </c>
       <c r="AG74" s="5" t="s">
-        <v>1268</v>
+        <v>1648</v>
       </c>
       <c r="AH74" s="6">
-        <v>42925</v>
+        <v>43108</v>
       </c>
       <c r="AI74" s="5" t="s">
-        <v>176</v>
+        <v>586</v>
       </c>
       <c r="AJ74" s="5" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="AK74" s="6">
-        <v>39080</v>
+        <v>42086</v>
       </c>
       <c r="AL74" s="5"/>
       <c r="AM74" s="5" t="s">
-        <v>388</v>
+        <v>1564</v>
       </c>
       <c r="AN74" s="6">
-        <v>39541</v>
+        <v>42550</v>
       </c>
       <c r="AO74" s="5"/>
       <c r="AP74" s="5" t="s">
-        <v>1670</v>
+        <v>1650</v>
       </c>
       <c r="AQ74" s="5" t="s">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="AR74" s="6">
-        <v>30132</v>
+        <v>35956</v>
       </c>
       <c r="AS74" s="5"/>
       <c r="AT74" s="5" t="s">
-        <v>1672</v>
+        <v>1652</v>
       </c>
       <c r="AU74" s="5" t="s">
-        <v>1673</v>
+        <v>1653</v>
       </c>
       <c r="AV74" s="6">
-        <v>31188</v>
+        <v>37067</v>
       </c>
       <c r="AW74" s="5"/>
       <c r="AX74" s="5" t="s">
-        <v>1674</v>
+        <v>1654</v>
       </c>
       <c r="AY74" s="5" t="s">
-        <v>1675</v>
+        <v>1655</v>
       </c>
       <c r="AZ74" s="6">
-        <v>30104</v>
+        <v>38152</v>
       </c>
       <c r="BA74" s="5"/>
       <c r="BB74" s="5" t="s">
         <v>956</v>
       </c>
       <c r="BC74" s="5" t="s">
-        <v>1676</v>
+        <v>1656</v>
       </c>
       <c r="BD74" s="6">
-        <v>32179</v>
+        <v>38152</v>
       </c>
       <c r="BE74" s="5" t="s">
         <v>1634</v>
@@ -18880,35 +18912,35 @@
         <v>45292</v>
       </c>
       <c r="BH74" s="5"/>
-      <c r="BI74" s="4" t="s">
-        <v>96</v>
+      <c r="BI74" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:61" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1677</v>
+        <v>1657</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1678</v>
+        <v>1658</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>850</v>
+        <v>373</v>
       </c>
       <c r="I75" s="6">
-        <v>28289</v>
+        <v>24607</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>56</v>
@@ -18923,16 +18955,16 @@
         <v>59</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>1679</v>
+        <v>1659</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>1399</v>
+        <v>1661</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>1681</v>
+        <v>1662</v>
       </c>
       <c r="R75" s="5" t="s">
         <v>90</v>
@@ -18941,36 +18973,34 @@
         <v>64</v>
       </c>
       <c r="T75" s="5" t="s">
-        <v>1682</v>
+        <v>1663</v>
       </c>
       <c r="U75" s="6">
-        <v>39816</v>
+        <v>35831</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>1683</v>
+        <v>1664</v>
       </c>
       <c r="W75" s="5"/>
       <c r="X75" s="5" t="s">
-        <v>1684</v>
+        <v>1665</v>
       </c>
       <c r="Y75" s="5" t="s">
-        <v>1685</v>
+        <v>1666</v>
       </c>
       <c r="Z75" s="5" t="s">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="AA75" s="5"/>
       <c r="AB75" s="6">
         <v>1462</v>
       </c>
-      <c r="AC75" s="5" t="s">
-        <v>1678</v>
-      </c>
+      <c r="AC75" s="5"/>
       <c r="AD75" s="6">
-        <v>42198</v>
+        <v>1462</v>
       </c>
       <c r="AE75" s="5" t="s">
-        <v>1687</v>
+        <v>1668</v>
       </c>
       <c r="AF75" s="6">
         <v>42696</v>
@@ -18985,66 +19015,68 @@
         <v>176</v>
       </c>
       <c r="AJ75" s="5" t="s">
-        <v>1688</v>
+        <v>1669</v>
       </c>
       <c r="AK75" s="6">
-        <v>42086</v>
+        <v>39080</v>
       </c>
       <c r="AL75" s="5"/>
       <c r="AM75" s="5" t="s">
-        <v>1689</v>
+        <v>388</v>
       </c>
       <c r="AN75" s="6">
-        <v>42550</v>
+        <v>39541</v>
       </c>
       <c r="AO75" s="5"/>
       <c r="AP75" s="5" t="s">
-        <v>1690</v>
+        <v>1670</v>
       </c>
       <c r="AQ75" s="5" t="s">
-        <v>1691</v>
+        <v>1671</v>
       </c>
       <c r="AR75" s="6">
-        <v>32673</v>
+        <v>30132</v>
       </c>
       <c r="AS75" s="5"/>
       <c r="AT75" s="5" t="s">
-        <v>1692</v>
+        <v>1672</v>
       </c>
       <c r="AU75" s="5" t="s">
-        <v>1693</v>
+        <v>1673</v>
       </c>
       <c r="AV75" s="6">
-        <v>33759</v>
+        <v>31188</v>
       </c>
       <c r="AW75" s="5"/>
       <c r="AX75" s="5" t="s">
-        <v>1694</v>
+        <v>1674</v>
       </c>
       <c r="AY75" s="5" t="s">
-        <v>1695</v>
+        <v>1675</v>
       </c>
       <c r="AZ75" s="6">
-        <v>39660</v>
+        <v>30104</v>
       </c>
       <c r="BA75" s="5"/>
       <c r="BB75" s="5" t="s">
-        <v>1213</v>
+        <v>956</v>
       </c>
       <c r="BC75" s="5" t="s">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="BD75" s="6">
-        <v>39660</v>
-      </c>
-      <c r="BE75" s="5"/>
+        <v>32179</v>
+      </c>
+      <c r="BE75" s="5" t="s">
+        <v>1634</v>
+      </c>
       <c r="BF75" s="5"/>
       <c r="BG75" s="7">
         <v>45292</v>
       </c>
       <c r="BH75" s="5"/>
-      <c r="BI75" s="4" t="s">
-        <v>96</v>
+      <c r="BI75" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19052,26 +19084,26 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1696</v>
+        <v>1677</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>1309</v>
+        <v>599</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1697</v>
+        <v>1678</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>1698</v>
+        <v>850</v>
       </c>
       <c r="I76" s="6">
-        <v>31208</v>
+        <v>28289</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>56</v>
@@ -19086,115 +19118,119 @@
         <v>59</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>1701</v>
+        <v>1399</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>1703</v>
+        <v>90</v>
       </c>
       <c r="S76" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>1704</v>
+        <v>1682</v>
       </c>
       <c r="U76" s="6">
-        <v>42475</v>
+        <v>39816</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>1705</v>
+        <v>1683</v>
       </c>
       <c r="W76" s="5"/>
       <c r="X76" s="5" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>1707</v>
+        <v>1685</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>1708</v>
+        <v>1686</v>
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="6">
         <v>1462</v>
       </c>
       <c r="AC76" s="5" t="s">
-        <v>1697</v>
+        <v>1678</v>
       </c>
       <c r="AD76" s="6">
-        <v>42214</v>
+        <v>42198</v>
       </c>
       <c r="AE76" s="5" t="s">
-        <v>1709</v>
+        <v>1687</v>
       </c>
       <c r="AF76" s="6">
         <v>42696</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>1710</v>
+        <v>1268</v>
       </c>
       <c r="AH76" s="6">
-        <v>43108</v>
+        <v>42925</v>
       </c>
       <c r="AI76" s="5" t="s">
         <v>176</v>
       </c>
       <c r="AJ76" s="5" t="s">
-        <v>1711</v>
+        <v>1688</v>
       </c>
       <c r="AK76" s="6">
         <v>42086</v>
       </c>
       <c r="AL76" s="5"/>
       <c r="AM76" s="5" t="s">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="AN76" s="6">
         <v>42550</v>
       </c>
       <c r="AO76" s="5"/>
       <c r="AP76" s="5" t="s">
-        <v>1713</v>
+        <v>1690</v>
       </c>
       <c r="AQ76" s="5" t="s">
-        <v>1714</v>
+        <v>1691</v>
       </c>
       <c r="AR76" s="6">
-        <v>35956</v>
+        <v>32673</v>
       </c>
       <c r="AS76" s="5"/>
       <c r="AT76" s="5" t="s">
-        <v>1715</v>
+        <v>1692</v>
       </c>
       <c r="AU76" s="5" t="s">
-        <v>1716</v>
+        <v>1693</v>
       </c>
       <c r="AV76" s="6">
-        <v>37431</v>
+        <v>33759</v>
       </c>
       <c r="AW76" s="5"/>
-      <c r="AX76" s="5"/>
-      <c r="AY76" s="5"/>
+      <c r="AX76" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AY76" s="5" t="s">
+        <v>1695</v>
+      </c>
       <c r="AZ76" s="6">
-        <v>1462</v>
+        <v>39660</v>
       </c>
       <c r="BA76" s="5"/>
       <c r="BB76" s="5" t="s">
-        <v>393</v>
+        <v>1213</v>
       </c>
       <c r="BC76" s="5" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="BD76" s="6">
-        <v>37431</v>
+        <v>39660</v>
       </c>
       <c r="BE76" s="5"/>
       <c r="BF76" s="5"/>
@@ -19202,8 +19238,8 @@
         <v>45292</v>
       </c>
       <c r="BH76" s="5"/>
-      <c r="BI76" s="4" t="s">
-        <v>96</v>
+      <c r="BI76" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19211,26 +19247,26 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>646</v>
+        <v>1309</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="I77" s="6">
-        <v>31300</v>
+        <v>31208</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>56</v>
@@ -19245,117 +19281,115 @@
         <v>59</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="S77" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="U77" s="6">
-        <v>42635</v>
+        <v>42475</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="W77" s="5"/>
       <c r="X77" s="5" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="Y77" s="5" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="AA77" s="5"/>
       <c r="AB77" s="6">
         <v>1462</v>
       </c>
       <c r="AC77" s="5" t="s">
-        <v>1730</v>
+        <v>1697</v>
       </c>
       <c r="AD77" s="6">
-        <v>1462</v>
-      </c>
-      <c r="AE77" s="5"/>
+        <v>42214</v>
+      </c>
+      <c r="AE77" s="5" t="s">
+        <v>1709</v>
+      </c>
       <c r="AF77" s="6">
-        <v>1462</v>
+        <v>42696</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>1268</v>
+        <v>1710</v>
       </c>
       <c r="AH77" s="6">
-        <v>42925</v>
+        <v>43108</v>
       </c>
       <c r="AI77" s="5" t="s">
         <v>176</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="AK77" s="6">
         <v>42086</v>
       </c>
       <c r="AL77" s="5"/>
       <c r="AM77" s="5" t="s">
-        <v>1689</v>
+        <v>1712</v>
       </c>
       <c r="AN77" s="6">
         <v>42550</v>
       </c>
       <c r="AO77" s="5"/>
       <c r="AP77" s="5" t="s">
-        <v>1732</v>
+        <v>1713</v>
       </c>
       <c r="AQ77" s="5" t="s">
-        <v>1733</v>
+        <v>1714</v>
       </c>
       <c r="AR77" s="6">
-        <v>36311</v>
+        <v>35956</v>
       </c>
       <c r="AS77" s="5"/>
       <c r="AT77" s="5" t="s">
-        <v>1734</v>
+        <v>1715</v>
       </c>
       <c r="AU77" s="5" t="s">
-        <v>1735</v>
+        <v>1716</v>
       </c>
       <c r="AV77" s="6">
         <v>37431</v>
       </c>
       <c r="AW77" s="5"/>
-      <c r="AX77" s="5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AY77" s="5" t="s">
-        <v>1736</v>
-      </c>
+      <c r="AX77" s="5"/>
+      <c r="AY77" s="5"/>
       <c r="AZ77" s="6">
-        <v>39660</v>
+        <v>1462</v>
       </c>
       <c r="BA77" s="5"/>
       <c r="BB77" s="5" t="s">
-        <v>1701</v>
+        <v>393</v>
       </c>
       <c r="BC77" s="5" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="BD77" s="6">
-        <v>39660</v>
+        <v>37431</v>
       </c>
       <c r="BE77" s="5"/>
       <c r="BF77" s="5"/>
@@ -19363,8 +19397,8 @@
         <v>45292</v>
       </c>
       <c r="BH77" s="5"/>
-      <c r="BI77" s="4" t="s">
-        <v>96</v>
+      <c r="BI77" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19372,14 +19406,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>91</v>
@@ -19388,10 +19422,10 @@
         <v>102</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>850</v>
+        <v>1719</v>
       </c>
       <c r="I78" s="6">
-        <v>30096</v>
+        <v>31300</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>56</v>
@@ -19406,161 +19440,157 @@
         <v>59</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>1741</v>
+        <v>1722</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>1742</v>
+        <v>1723</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>90</v>
+        <v>1724</v>
       </c>
       <c r="S78" s="5" t="s">
         <v>64</v>
       </c>
       <c r="T78" s="5" t="s">
-        <v>1743</v>
+        <v>1725</v>
       </c>
       <c r="U78" s="6">
-        <v>39829</v>
+        <v>42635</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>1744</v>
+        <v>1726</v>
       </c>
       <c r="W78" s="5"/>
       <c r="X78" s="5" t="s">
-        <v>1745</v>
+        <v>1727</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>1746</v>
+        <v>1728</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>1747</v>
-      </c>
-      <c r="AA78" s="5" t="s">
-        <v>1748</v>
-      </c>
+        <v>1729</v>
+      </c>
+      <c r="AA78" s="5"/>
       <c r="AB78" s="6">
-        <v>42748</v>
+        <v>1462</v>
       </c>
       <c r="AC78" s="5" t="s">
-        <v>1749</v>
+        <v>1730</v>
       </c>
       <c r="AD78" s="6">
-        <v>41451</v>
-      </c>
-      <c r="AE78" s="5" t="s">
-        <v>1750</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="AE78" s="5"/>
       <c r="AF78" s="6">
-        <v>40126</v>
+        <v>1462</v>
       </c>
       <c r="AG78" s="5" t="s">
-        <v>1185</v>
+        <v>1268</v>
       </c>
       <c r="AH78" s="6">
-        <v>43159</v>
+        <v>42925</v>
       </c>
       <c r="AI78" s="5" t="s">
         <v>176</v>
       </c>
       <c r="AJ78" s="5" t="s">
-        <v>1751</v>
+        <v>1731</v>
       </c>
       <c r="AK78" s="6">
         <v>42086</v>
       </c>
       <c r="AL78" s="5"/>
       <c r="AM78" s="5" t="s">
-        <v>1185</v>
+        <v>1689</v>
       </c>
       <c r="AN78" s="6">
-        <v>43159</v>
+        <v>42550</v>
       </c>
       <c r="AO78" s="5"/>
       <c r="AP78" s="5" t="s">
-        <v>1752</v>
+        <v>1732</v>
       </c>
       <c r="AQ78" s="5" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="AR78" s="6">
-        <v>34846</v>
+        <v>36311</v>
       </c>
       <c r="AS78" s="5"/>
       <c r="AT78" s="5" t="s">
-        <v>1754</v>
+        <v>1734</v>
       </c>
       <c r="AU78" s="5" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="AV78" s="6">
-        <v>35941</v>
+        <v>37431</v>
       </c>
       <c r="AW78" s="5"/>
       <c r="AX78" s="5" t="s">
         <v>1347</v>
       </c>
       <c r="AY78" s="5" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="AZ78" s="6">
-        <v>42857</v>
+        <v>39660</v>
       </c>
       <c r="BA78" s="5"/>
       <c r="BB78" s="5" t="s">
-        <v>396</v>
+        <v>1701</v>
       </c>
       <c r="BC78" s="5" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="BD78" s="6">
-        <v>35941</v>
-      </c>
-      <c r="BE78" s="5" t="s">
-        <v>931</v>
-      </c>
+        <v>39660</v>
+      </c>
+      <c r="BE78" s="5"/>
       <c r="BF78" s="5"/>
       <c r="BG78" s="7">
         <v>45292</v>
       </c>
       <c r="BH78" s="5"/>
-      <c r="BI78" s="4" t="s">
-        <v>96</v>
+      <c r="BI78" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>1737</v>
+      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>1759</v>
+        <v>599</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1760</v>
+        <v>1738</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6" t="s">
-        <v>1816</v>
-      </c>
-      <c r="J79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="I79" s="6">
+        <v>30096</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>57</v>
       </c>
@@ -19570,88 +19600,164 @@
       <c r="M79" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
+      <c r="N79" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>1742</v>
+      </c>
       <c r="R79" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S79" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T79" s="5"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="5"/>
+      <c r="T79" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="U79" s="6">
+        <v>39829</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>1744</v>
+      </c>
       <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="6"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="6"/>
+      <c r="X79" s="5" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Y79" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Z79" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AA79" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AB79" s="6">
+        <v>42748</v>
+      </c>
+      <c r="AC79" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AD79" s="6">
+        <v>41451</v>
+      </c>
+      <c r="AE79" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>40126</v>
+      </c>
+      <c r="AG79" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AH79" s="6">
+        <v>43159</v>
+      </c>
+      <c r="AI79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ79" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AK79" s="6">
+        <v>42086</v>
+      </c>
       <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="6"/>
+      <c r="AM79" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AN79" s="6">
+        <v>43159</v>
+      </c>
       <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
-      <c r="AQ79" s="5"/>
-      <c r="AR79" s="6"/>
+      <c r="AP79" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AQ79" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="AR79" s="6">
+        <v>34846</v>
+      </c>
       <c r="AS79" s="5"/>
-      <c r="AT79" s="5"/>
-      <c r="AU79" s="5"/>
-      <c r="AV79" s="6"/>
+      <c r="AT79" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="AU79" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AV79" s="6">
+        <v>35941</v>
+      </c>
       <c r="AW79" s="5"/>
-      <c r="AX79" s="5"/>
-      <c r="AY79" s="5"/>
-      <c r="AZ79" s="6"/>
+      <c r="AX79" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AY79" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AZ79" s="6">
+        <v>42857</v>
+      </c>
       <c r="BA79" s="5"/>
-      <c r="BB79" s="5"/>
-      <c r="BC79" s="5"/>
-      <c r="BD79" s="6"/>
-      <c r="BE79" s="5"/>
+      <c r="BB79" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="BC79" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="BD79" s="6">
+        <v>35941</v>
+      </c>
+      <c r="BE79" s="5" t="s">
+        <v>931</v>
+      </c>
       <c r="BF79" s="5"/>
       <c r="BG79" s="7">
         <v>45292</v>
       </c>
       <c r="BH79" s="5"/>
-      <c r="BI79" s="4" t="s">
-        <v>96</v>
+      <c r="BI79" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4" t="s">
-        <v>599</v>
+        <v>1758</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>646</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="6" t="s">
-        <v>1817</v>
-      </c>
-      <c r="J80" s="5"/>
+      <c r="I80" s="6">
+        <v>30631</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="K80" s="5" t="s">
         <v>57</v>
       </c>
@@ -19714,8 +19820,8 @@
         <v>45292</v>
       </c>
       <c r="BH80" s="5"/>
-      <c r="BI80" s="4" t="s">
-        <v>96</v>
+      <c r="BI80" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19723,26 +19829,26 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>991</v>
+        <v>599</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="6">
-        <v>32254</v>
-      </c>
-      <c r="J81" s="5" t="s">
+        <v>30212</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>56</v>
       </c>
       <c r="K81" s="5" t="s">
@@ -19807,33 +19913,31 @@
         <v>45292</v>
       </c>
       <c r="BH81" s="5"/>
-      <c r="BI81" s="4" t="s">
-        <v>96</v>
+      <c r="BI81" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="10">
-        <v>8.0700663366958704E+16</v>
+        <v>1762</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>1763</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>911</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H82" s="5"/>
       <c r="I82" s="6">
         <v>32254</v>
       </c>
@@ -19841,27 +19945,23 @@
         <v>56</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>1766</v>
+        <v>58</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>1767</v>
+        <v>59</v>
       </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
-      <c r="P82" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q82" s="5" t="s">
-        <v>1768</v>
-      </c>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
       <c r="R82" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>976</v>
+        <v>64</v>
       </c>
       <c r="T82" s="5"/>
       <c r="U82" s="6"/>
@@ -19906,59 +20006,55 @@
         <v>45292</v>
       </c>
       <c r="BH82" s="5"/>
-      <c r="BI82" s="4" t="s">
-        <v>96</v>
+      <c r="BI82" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>1769</v>
+      <c r="B83" s="13" t="s">
+        <v>1844</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="10">
-        <v>8.4955440273016896E+17</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" s="5" t="s">
+      <c r="D83" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H83" s="5" t="s">
-        <v>1770</v>
-      </c>
+      <c r="H83" s="5"/>
       <c r="I83" s="6">
-        <v>32117</v>
-      </c>
-      <c r="J83" s="5" t="s">
+        <v>30318</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>56</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>1766</v>
+        <v>58</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>1767</v>
+        <v>59</v>
       </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
-      <c r="P83" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q83" s="5" t="s">
-        <v>1768</v>
-      </c>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
       <c r="R83" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>976</v>
+        <v>64</v>
       </c>
       <c r="T83" s="5"/>
       <c r="U83" s="6"/>
@@ -19999,12 +20095,10 @@
       <c r="BD83" s="6"/>
       <c r="BE83" s="5"/>
       <c r="BF83" s="5"/>
-      <c r="BG83" s="7">
-        <v>45292</v>
-      </c>
+      <c r="BG83" s="7"/>
       <c r="BH83" s="5"/>
-      <c r="BI83" s="4" t="s">
-        <v>96</v>
+      <c r="BI83" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20012,12 +20106,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C84" s="11"/>
+        <v>1764</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="10">
-        <v>4.5967252537427098E+17</v>
+      <c r="E84" s="11" t="s">
+        <v>1823</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>85</v>
@@ -20026,22 +20122,22 @@
         <v>102</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>1772</v>
+        <v>911</v>
       </c>
       <c r="I84" s="6">
-        <v>32098</v>
+        <v>32254</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L84" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -20049,7 +20145,7 @@
         <v>393</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>90</v>
@@ -20100,8 +20196,8 @@
         <v>45292</v>
       </c>
       <c r="BH84" s="5"/>
-      <c r="BI84" s="4" t="s">
-        <v>96</v>
+      <c r="BI84" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="85" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20109,14 +20205,12 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>569</v>
-      </c>
+        <v>1768</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="10">
-        <v>9.1156609625817702E+17</v>
+      <c r="E85" s="11" t="s">
+        <v>1820</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>85</v>
@@ -20125,22 +20219,22 @@
         <v>102</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="I85" s="6">
-        <v>31943</v>
+        <v>32117</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L85" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
@@ -20148,7 +20242,7 @@
         <v>393</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R85" s="5" t="s">
         <v>90</v>
@@ -20199,8 +20293,8 @@
         <v>45292</v>
       </c>
       <c r="BH85" s="5"/>
-      <c r="BI85" s="4" t="s">
-        <v>96</v>
+      <c r="BI85" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="86" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20208,14 +20302,12 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>1776</v>
-      </c>
+        <v>1770</v>
+      </c>
+      <c r="C86" s="10"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="10">
-        <v>8.4680330475411904E+17</v>
+      <c r="E86" s="11" t="s">
+        <v>1821</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>85</v>
@@ -20224,22 +20316,22 @@
         <v>102</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>160</v>
+        <v>1771</v>
       </c>
       <c r="I86" s="6">
-        <v>33946</v>
+        <v>32098</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>1777</v>
+        <v>56</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L86" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
@@ -20247,7 +20339,7 @@
         <v>393</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R86" s="5" t="s">
         <v>90</v>
@@ -20298,8 +20390,8 @@
         <v>45292</v>
       </c>
       <c r="BH86" s="5"/>
-      <c r="BI86" s="4" t="s">
-        <v>96</v>
+      <c r="BI86" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="87" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20307,14 +20399,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1779</v>
+        <v>569</v>
       </c>
       <c r="D87" s="8"/>
-      <c r="E87" s="10">
-        <v>1.3574279034252499E+17</v>
+      <c r="E87" s="11" t="s">
+        <v>1822</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>85</v>
@@ -20323,22 +20415,22 @@
         <v>102</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="I87" s="6">
-        <v>35405</v>
+        <v>31943</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L87" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M87" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
@@ -20346,7 +20438,7 @@
         <v>393</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R87" s="5" t="s">
         <v>90</v>
@@ -20397,8 +20489,8 @@
         <v>45292</v>
       </c>
       <c r="BH87" s="5"/>
-      <c r="BI87" s="4" t="s">
-        <v>96</v>
+      <c r="BI87" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="88" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20406,12 +20498,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>1774</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1775</v>
+      </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="10">
-        <v>1.8808519165948499E+17</v>
+      <c r="E88" s="11" t="s">
+        <v>1824</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>85</v>
@@ -20420,22 +20514,22 @@
         <v>102</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>782</v>
+        <v>160</v>
       </c>
       <c r="I88" s="6">
-        <v>35474</v>
+        <v>33946</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>56</v>
+        <v>1776</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L88" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M88" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
@@ -20443,7 +20537,7 @@
         <v>393</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R88" s="5" t="s">
         <v>90</v>
@@ -20494,8 +20588,8 @@
         <v>45292</v>
       </c>
       <c r="BH88" s="5"/>
-      <c r="BI88" s="4" t="s">
-        <v>96</v>
+      <c r="BI88" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="89" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20503,12 +20597,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C89" s="4"/>
+        <v>1777</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1778</v>
+      </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="10">
-        <v>7.1703189547998797E+17</v>
+      <c r="E89" s="11" t="s">
+        <v>1825</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>85</v>
@@ -20517,22 +20613,22 @@
         <v>102</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>911</v>
+        <v>1779</v>
       </c>
       <c r="I89" s="6">
-        <v>35910</v>
+        <v>35405</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L89" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M89" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
@@ -20540,7 +20636,7 @@
         <v>393</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="R89" s="5" t="s">
         <v>90</v>
@@ -20591,8 +20687,8 @@
         <v>45292</v>
       </c>
       <c r="BH89" s="5"/>
-      <c r="BI89" s="4" t="s">
-        <v>96</v>
+      <c r="BI89" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="90" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20600,14 +20696,12 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>1785</v>
-      </c>
+        <v>1780</v>
+      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="10">
-        <v>4.1421235890617101E+17</v>
+      <c r="E90" s="11" t="s">
+        <v>1826</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>85</v>
@@ -20616,22 +20710,22 @@
         <v>102</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>744</v>
+        <v>782</v>
       </c>
       <c r="I90" s="6">
-        <v>34829</v>
+        <v>35474</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L90" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M90" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
@@ -20639,7 +20733,7 @@
         <v>393</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="R90" s="5" t="s">
         <v>90</v>
@@ -20690,8 +20784,8 @@
         <v>45292</v>
       </c>
       <c r="BH90" s="5"/>
-      <c r="BI90" s="4" t="s">
-        <v>96</v>
+      <c r="BI90" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="91" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20699,12 +20793,12 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="10">
-        <v>8.6545310855734899E+17</v>
+      <c r="E91" s="11" t="s">
+        <v>1827</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>85</v>
@@ -20713,22 +20807,22 @@
         <v>102</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="I91" s="6">
-        <v>29647</v>
+        <v>35910</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L91" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M91" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
@@ -20736,7 +20830,7 @@
         <v>393</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R91" s="5" t="s">
         <v>90</v>
@@ -20787,8 +20881,8 @@
         <v>45292</v>
       </c>
       <c r="BH91" s="5"/>
-      <c r="BI91" s="4" t="s">
-        <v>96</v>
+      <c r="BI91" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="92" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20796,12 +20890,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C92" s="4"/>
+        <v>1783</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>1784</v>
+      </c>
       <c r="D92" s="8"/>
-      <c r="E92" s="10">
-        <v>3.5278228539364602E+17</v>
+      <c r="E92" s="11" t="s">
+        <v>1828</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>85</v>
@@ -20810,10 +20906,10 @@
         <v>102</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>428</v>
+        <v>744</v>
       </c>
       <c r="I92" s="6">
-        <v>31200</v>
+        <v>34829</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>56</v>
@@ -20822,10 +20918,10 @@
         <v>187</v>
       </c>
       <c r="L92" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
@@ -20833,7 +20929,7 @@
         <v>393</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R92" s="5" t="s">
         <v>90</v>
@@ -20884,8 +20980,8 @@
         <v>45292</v>
       </c>
       <c r="BH92" s="5"/>
-      <c r="BI92" s="4" t="s">
-        <v>96</v>
+      <c r="BI92" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="93" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20893,12 +20989,12 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C93" s="11"/>
+        <v>1785</v>
+      </c>
+      <c r="C93" s="4"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="10">
-        <v>8.1995030786854502E+17</v>
+      <c r="E93" s="11" t="s">
+        <v>1829</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>85</v>
@@ -20906,9 +21002,11 @@
       <c r="G93" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>850</v>
+      </c>
       <c r="I93" s="6">
-        <v>31200</v>
+        <v>29647</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>56</v>
@@ -20917,10 +21015,10 @@
         <v>187</v>
       </c>
       <c r="L93" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M93" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
@@ -20928,7 +21026,7 @@
         <v>393</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R93" s="5" t="s">
         <v>90</v>
@@ -20979,8 +21077,8 @@
         <v>45292</v>
       </c>
       <c r="BH93" s="5"/>
-      <c r="BI93" s="4" t="s">
-        <v>96</v>
+      <c r="BI93" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="94" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20988,14 +21086,12 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>1790</v>
-      </c>
+        <v>1786</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="10">
-        <v>8.2846695314570906E+17</v>
+      <c r="E94" s="11" t="s">
+        <v>1830</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>85</v>
@@ -21004,22 +21100,22 @@
         <v>102</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>1792</v>
+        <v>428</v>
+      </c>
+      <c r="I94" s="6">
+        <v>31200</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L94" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M94" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
@@ -21027,7 +21123,7 @@
         <v>393</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R94" s="5" t="s">
         <v>90</v>
@@ -21078,8 +21174,8 @@
         <v>45292</v>
       </c>
       <c r="BH94" s="5"/>
-      <c r="BI94" s="4" t="s">
-        <v>96</v>
+      <c r="BI94" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="95" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21087,12 +21183,12 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="C95" s="4"/>
+        <v>1787</v>
+      </c>
+      <c r="C95" s="10"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="10">
-        <v>4.1013993454887802E+17</v>
+      <c r="E95" s="11" t="s">
+        <v>1831</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>85</v>
@@ -21100,23 +21196,21 @@
       <c r="G95" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>1793</v>
-      </c>
+      <c r="H95" s="5"/>
       <c r="I95" s="6">
-        <v>29647</v>
+        <v>31200</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L95" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M95" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
@@ -21124,7 +21218,7 @@
         <v>393</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R95" s="5" t="s">
         <v>90</v>
@@ -21175,8 +21269,8 @@
         <v>45292</v>
       </c>
       <c r="BH95" s="5"/>
-      <c r="BI95" s="4" t="s">
-        <v>96</v>
+      <c r="BI95" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="96" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21184,12 +21278,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>1788</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1789</v>
+      </c>
       <c r="D96" s="8"/>
-      <c r="E96" s="10">
-        <v>9.7499714971219699E+17</v>
+      <c r="E96" s="11" t="s">
+        <v>1832</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>85</v>
@@ -21198,10 +21294,10 @@
         <v>102</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="I96" s="6">
-        <v>32391</v>
+        <v>34410</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>56</v>
@@ -21210,10 +21306,10 @@
         <v>57</v>
       </c>
       <c r="L96" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M96" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
@@ -21221,7 +21317,7 @@
         <v>393</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R96" s="5" t="s">
         <v>90</v>
@@ -21272,8 +21368,8 @@
         <v>45292</v>
       </c>
       <c r="BH96" s="5"/>
-      <c r="BI96" s="4" t="s">
-        <v>96</v>
+      <c r="BI96" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="97" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21281,12 +21377,12 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1796</v>
+        <v>814</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="10">
-        <v>3.3304065841200102E+17</v>
+      <c r="E97" s="11" t="s">
+        <v>1833</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>85</v>
@@ -21294,9 +21390,11 @@
       <c r="G97" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H97" s="5"/>
+      <c r="H97" s="5" t="s">
+        <v>1791</v>
+      </c>
       <c r="I97" s="6">
-        <v>31200</v>
+        <v>29647</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>56</v>
@@ -21305,10 +21403,10 @@
         <v>57</v>
       </c>
       <c r="L97" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M97" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
@@ -21316,7 +21414,7 @@
         <v>393</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R97" s="5" t="s">
         <v>90</v>
@@ -21367,8 +21465,8 @@
         <v>45292</v>
       </c>
       <c r="BH97" s="5"/>
-      <c r="BI97" s="4" t="s">
-        <v>96</v>
+      <c r="BI97" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="98" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21376,12 +21474,12 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="10">
-        <v>4.1328515615268301E+17</v>
+      <c r="E98" s="11" t="s">
+        <v>1834</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>85</v>
@@ -21390,22 +21488,22 @@
         <v>102</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="I98" s="6">
-        <v>33310</v>
+        <v>32391</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L98" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M98" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -21413,7 +21511,7 @@
         <v>393</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R98" s="5" t="s">
         <v>90</v>
@@ -21464,8 +21562,8 @@
         <v>45292</v>
       </c>
       <c r="BH98" s="5"/>
-      <c r="BI98" s="4" t="s">
-        <v>96</v>
+      <c r="BI98" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="99" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21473,12 +21571,12 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="10">
-        <v>9.3804780076653798E+17</v>
+      <c r="E99" s="11" t="s">
+        <v>1835</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>85</v>
@@ -21486,11 +21584,9 @@
       <c r="G99" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>1800</v>
-      </c>
+      <c r="H99" s="5"/>
       <c r="I99" s="6">
-        <v>33760</v>
+        <v>31200</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>56</v>
@@ -21499,10 +21595,10 @@
         <v>57</v>
       </c>
       <c r="L99" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M99" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
@@ -21510,7 +21606,7 @@
         <v>393</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R99" s="5" t="s">
         <v>90</v>
@@ -21561,8 +21657,8 @@
         <v>45292</v>
       </c>
       <c r="BH99" s="5"/>
-      <c r="BI99" s="4" t="s">
-        <v>96</v>
+      <c r="BI99" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="100" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21570,12 +21666,12 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="10">
-        <v>7.0147133594056896E+17</v>
+      <c r="E100" s="11" t="s">
+        <v>1836</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>85</v>
@@ -21584,22 +21680,22 @@
         <v>102</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="I100" s="6">
-        <v>31606</v>
+        <v>33310</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>1803</v>
+        <v>56</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="L100" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M100" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
@@ -21607,7 +21703,7 @@
         <v>393</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R100" s="5" t="s">
         <v>90</v>
@@ -21658,8 +21754,8 @@
         <v>45292</v>
       </c>
       <c r="BH100" s="5"/>
-      <c r="BI100" s="4" t="s">
-        <v>96</v>
+      <c r="BI100" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="101" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21667,12 +21763,12 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="10">
-        <v>8.7163507451456602E+17</v>
+      <c r="E101" s="11" t="s">
+        <v>1837</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>85</v>
@@ -21681,10 +21777,10 @@
         <v>102</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="I101" s="6">
-        <v>36032</v>
+        <v>33760</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>56</v>
@@ -21693,10 +21789,10 @@
         <v>57</v>
       </c>
       <c r="L101" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M101" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
@@ -21704,7 +21800,7 @@
         <v>393</v>
       </c>
       <c r="Q101" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R101" s="5" t="s">
         <v>90</v>
@@ -21755,8 +21851,8 @@
         <v>45292</v>
       </c>
       <c r="BH101" s="5"/>
-      <c r="BI101" s="4" t="s">
-        <v>96</v>
+      <c r="BI101" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="102" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21764,12 +21860,12 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="10">
-        <v>8.1594748293478106E+17</v>
+      <c r="E102" s="11" t="s">
+        <v>1838</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>85</v>
@@ -21778,22 +21874,22 @@
         <v>102</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="I102" s="6">
-        <v>34680</v>
+        <v>31606</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>161</v>
+        <v>1801</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L102" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M102" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -21801,7 +21897,7 @@
         <v>393</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R102" s="5" t="s">
         <v>90</v>
@@ -21852,8 +21948,8 @@
         <v>45292</v>
       </c>
       <c r="BH102" s="5"/>
-      <c r="BI102" s="4" t="s">
-        <v>96</v>
+      <c r="BI102" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="103" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21861,12 +21957,12 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="10">
-        <v>4.0772303060313299E+17</v>
+      <c r="E103" s="11" t="s">
+        <v>1839</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>85</v>
@@ -21875,10 +21971,10 @@
         <v>102</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="I103" s="6">
-        <v>35090</v>
+        <v>36032</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>56</v>
@@ -21887,10 +21983,10 @@
         <v>57</v>
       </c>
       <c r="L103" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M103" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
@@ -21898,7 +21994,7 @@
         <v>393</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R103" s="5" t="s">
         <v>90</v>
@@ -21949,8 +22045,8 @@
         <v>45292</v>
       </c>
       <c r="BH103" s="5"/>
-      <c r="BI103" s="4" t="s">
-        <v>96</v>
+      <c r="BI103" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="104" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21958,12 +22054,12 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="10">
-        <v>6.7100012229575706E+17</v>
+      <c r="E104" s="11" t="s">
+        <v>1840</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>85</v>
@@ -21972,22 +22068,22 @@
         <v>102</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="I104" s="6">
-        <v>34709</v>
+        <v>34680</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="L104" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M104" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
@@ -21995,7 +22091,7 @@
         <v>393</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R104" s="5" t="s">
         <v>90</v>
@@ -22046,8 +22142,202 @@
         <v>45292</v>
       </c>
       <c r="BH104" s="5"/>
-      <c r="BI104" s="4" t="s">
-        <v>96</v>
+      <c r="BI104" s="13" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="105" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="11" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I105" s="6">
+        <v>35090</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q105" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R105" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="T105" s="5"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="6"/>
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="6"/>
+      <c r="AL105" s="5"/>
+      <c r="AM105" s="5"/>
+      <c r="AN105" s="6"/>
+      <c r="AO105" s="5"/>
+      <c r="AP105" s="5"/>
+      <c r="AQ105" s="5"/>
+      <c r="AR105" s="6"/>
+      <c r="AS105" s="5"/>
+      <c r="AT105" s="5"/>
+      <c r="AU105" s="5"/>
+      <c r="AV105" s="6"/>
+      <c r="AW105" s="5"/>
+      <c r="AX105" s="5"/>
+      <c r="AY105" s="5"/>
+      <c r="AZ105" s="6"/>
+      <c r="BA105" s="5"/>
+      <c r="BB105" s="5"/>
+      <c r="BC105" s="5"/>
+      <c r="BD105" s="6"/>
+      <c r="BE105" s="5"/>
+      <c r="BF105" s="5"/>
+      <c r="BG105" s="7">
+        <v>45292</v>
+      </c>
+      <c r="BH105" s="5"/>
+      <c r="BI105" s="13" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="106" spans="1:61" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="11" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I106" s="6">
+        <v>34709</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q106" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="T106" s="5"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="6"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="6"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="6"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="6"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="6"/>
+      <c r="AO106" s="5"/>
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="6"/>
+      <c r="AS106" s="5"/>
+      <c r="AT106" s="5"/>
+      <c r="AU106" s="5"/>
+      <c r="AV106" s="6"/>
+      <c r="AW106" s="5"/>
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="5"/>
+      <c r="AZ106" s="6"/>
+      <c r="BA106" s="5"/>
+      <c r="BB106" s="5"/>
+      <c r="BC106" s="5"/>
+      <c r="BD106" s="6"/>
+      <c r="BE106" s="5"/>
+      <c r="BF106" s="5"/>
+      <c r="BG106" s="7">
+        <v>45292</v>
+      </c>
+      <c r="BH106" s="5"/>
+      <c r="BI106" s="13" t="s">
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -22059,36 +22349,36 @@
     <hyperlink ref="R42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="R43" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="R44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="R56" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="R74" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="R75" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="R78" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="R79" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="R80" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="R81" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="R82" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="R83" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="R84" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="R85" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="R86" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="R87" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="R88" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="R89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="R90" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="R91" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="R92" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="R93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="R94" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="R95" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="R96" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="R97" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="R98" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="R99" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="R100" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="R101" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="R102" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="R103" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="R104" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="R57" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="R75" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="R76" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="R79" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="R80" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="R81" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="R82" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="R84" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="R85" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="R86" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="R87" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="R88" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R89" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="R90" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="R91" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="R92" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="R93" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="R94" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="R95" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="R96" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="R97" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="R98" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="R99" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="R100" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="R101" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="R102" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="R103" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R104" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="R105" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="R106" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="R13" r:id="rId38" xr:uid="{524EF707-1F75-624C-B732-B314C6214BC3}"/>
     <hyperlink ref="R27" r:id="rId39" xr:uid="{9E9F1253-EFB8-BE44-BA7B-F8FCEE0AB624}"/>
     <hyperlink ref="R29" r:id="rId40" xr:uid="{8192AF18-B8F1-5D43-BC42-B9F524364169}"/>
@@ -22096,7 +22386,9 @@
     <hyperlink ref="R50" r:id="rId42" xr:uid="{24F2DF32-3790-B04D-B4AF-B8DB183085DC}"/>
     <hyperlink ref="R52" r:id="rId43" xr:uid="{E628EEF8-ACB1-324A-BACC-41E3F7CDBE0E}"/>
     <hyperlink ref="R54" r:id="rId44" xr:uid="{638897B3-7229-ED48-AD55-06A65F01B65B}"/>
-    <hyperlink ref="R55" r:id="rId45" xr:uid="{D9861CC1-67B5-C040-85DB-49EDAA20F6BA}"/>
+    <hyperlink ref="R56" r:id="rId45" xr:uid="{D9861CC1-67B5-C040-85DB-49EDAA20F6BA}"/>
+    <hyperlink ref="R55" r:id="rId46" xr:uid="{53FBC8A0-06DA-4949-B562-E737A9E84A47}"/>
+    <hyperlink ref="R83" r:id="rId47" xr:uid="{5A27AFC0-08D9-9F4E-B752-26F7F3A4436A}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="25" orientation="portrait"/>
@@ -22104,6 +22396,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Data ASN</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId46"/>
+  <legacyDrawing r:id="rId48"/>
 </worksheet>
 </file>
--- a/public/template/26. ASN OPD DPUPR.xlsx
+++ b/public/template/26. ASN OPD DPUPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwi_mansyur/Documents/htdocs/sesendokneo/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891FA90-4EFE-C441-AB73-9DB1B8597BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553F780-17D9-A343-8187-5C3279FD4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32200" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6934,8 +6934,8 @@
   <dimension ref="A1:BI106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
